--- a/data/egg_tube_data.xlsx
+++ b/data/egg_tube_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/prelims/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14D182D-32C1-B840-8529-2BBA7A4D4F2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FDC85-7293-AD45-970C-B5948DE49C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="560" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
   <sheets>
     <sheet name="egg_tube_data3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="74">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -233,6 +233,21 @@
   <si>
     <t>10.15.21</t>
   </si>
+  <si>
+    <t>died before 9.21.21</t>
+  </si>
+  <si>
+    <t>10.18.21</t>
+  </si>
+  <si>
+    <t>died before 9.24.21</t>
+  </si>
+  <si>
+    <t>missing date</t>
+  </si>
+  <si>
+    <t>10.16-10.18</t>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -337,11 +352,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -355,6 +381,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,11 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360198D1-0CD9-2542-AA08-B793A290F6A1}">
-  <dimension ref="A1:L1271"/>
+  <dimension ref="A1:L1276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E559" sqref="E559"/>
+      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G768" sqref="G768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1750,9 @@
       <c r="E36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2203,9 @@
         <v>15</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G51" s="11" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +2214,9 @@
       <c r="J51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -4083,7 +4117,9 @@
       <c r="E119" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F119" s="6"/>
+      <c r="F119" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G119" s="11" t="s">
         <v>17</v>
       </c>
@@ -5605,7 +5641,9 @@
         <v>13</v>
       </c>
       <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G171" s="11" t="s">
         <v>18</v>
       </c>
@@ -5614,7 +5652,9 @@
       <c r="J171" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K171" s="6"/>
+      <c r="K171" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="172" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
@@ -5788,7 +5828,9 @@
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
+      <c r="K177" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="178" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
@@ -5813,7 +5855,9 @@
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
+      <c r="K178" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="179" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
@@ -5836,7 +5880,9 @@
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
+      <c r="K179" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="180" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
@@ -5861,7 +5907,9 @@
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
+      <c r="K180" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="181" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
@@ -5884,7 +5932,9 @@
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
+      <c r="K181" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="182" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
@@ -5907,7 +5957,9 @@
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
+      <c r="K182" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="183" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
@@ -5930,7 +5982,9 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
+      <c r="K183" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="184" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
@@ -5953,7 +6007,9 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
+      <c r="K184" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="185" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
@@ -5978,7 +6034,9 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
+      <c r="K185" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="186" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
@@ -6001,7 +6059,9 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
+      <c r="K186" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="187" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
@@ -6024,7 +6084,9 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
+      <c r="K187" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="188" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
@@ -6047,7 +6109,9 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
+      <c r="K188" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="189" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
@@ -6099,7 +6163,9 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
+      <c r="K190" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="191" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
@@ -6122,7 +6188,9 @@
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
-      <c r="K191" s="6"/>
+      <c r="K191" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="192" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
@@ -6147,7 +6215,9 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
-      <c r="K192" s="6"/>
+      <c r="K192" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="193" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
@@ -6170,7 +6240,9 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
+      <c r="K193" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="194" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
@@ -6195,7 +6267,9 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
+      <c r="K194" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="195" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
@@ -6220,7 +6294,9 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
+      <c r="K195" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="196" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
@@ -6245,7 +6321,9 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
+      <c r="K196" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="197" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
@@ -6270,7 +6348,9 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
-      <c r="K197" s="6"/>
+      <c r="K197" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="198" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
@@ -6293,7 +6373,9 @@
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
-      <c r="K198" s="6"/>
+      <c r="K198" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="199" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
@@ -6316,7 +6398,9 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
-      <c r="K199" s="6"/>
+      <c r="K199" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="200" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
@@ -6339,7 +6423,9 @@
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
-      <c r="K200" s="6"/>
+      <c r="K200" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="201" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
@@ -6364,7 +6450,9 @@
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
-      <c r="K201" s="6"/>
+      <c r="K201" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="202" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
@@ -6389,7 +6477,9 @@
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
-      <c r="K202" s="6"/>
+      <c r="K202" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="203" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
@@ -6412,7 +6502,9 @@
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
-      <c r="K203" s="6"/>
+      <c r="K203" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="204" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
@@ -6435,7 +6527,9 @@
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
-      <c r="K204" s="6"/>
+      <c r="K204" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="205" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
@@ -6458,7 +6552,9 @@
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
-      <c r="K205" s="6"/>
+      <c r="K205" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="206" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
@@ -6481,7 +6577,9 @@
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
-      <c r="K206" s="8"/>
+      <c r="K206" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="207" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9">
@@ -7928,7 +8026,9 @@
       <c r="J257" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K257" s="6"/>
+      <c r="K257" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="258" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
@@ -8246,7 +8346,9 @@
       <c r="E268" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F268" s="6"/>
+      <c r="F268" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G268" s="11" t="s">
         <v>17</v>
       </c>
@@ -8477,7 +8579,9 @@
         <v>24</v>
       </c>
       <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
+      <c r="F276" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G276" s="11" t="s">
         <v>17</v>
       </c>
@@ -8486,7 +8590,9 @@
       <c r="J276" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K276" s="6"/>
+      <c r="K276" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="277" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
@@ -9691,7 +9797,9 @@
       <c r="D317" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E317" s="6"/>
+      <c r="E317" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F317" s="6"/>
       <c r="G317" s="11" t="s">
         <v>17</v>
@@ -9701,7 +9809,9 @@
       <c r="J317" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K317" s="6"/>
+      <c r="K317" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="318" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
@@ -9719,7 +9829,9 @@
       <c r="E318" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F318" s="6"/>
+      <c r="F318" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G318" s="11" t="s">
         <v>17</v>
       </c>
@@ -10026,7 +10138,9 @@
       <c r="J328" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K328" s="6"/>
+      <c r="K328" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="329" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
@@ -10747,7 +10861,9 @@
         <v>24</v>
       </c>
       <c r="E354" s="6"/>
-      <c r="F354" s="6"/>
+      <c r="F354" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G354" s="11" t="s">
         <v>17</v>
       </c>
@@ -10756,7 +10872,9 @@
       <c r="J354" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K354" s="6"/>
+      <c r="K354" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="355" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
@@ -10832,7 +10950,9 @@
         <v>24</v>
       </c>
       <c r="E357" s="6"/>
-      <c r="F357" s="6"/>
+      <c r="F357" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G357" s="11" t="s">
         <v>17</v>
       </c>
@@ -10841,7 +10961,9 @@
       <c r="J357" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K357" s="6"/>
+      <c r="K357" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="358" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
@@ -11719,7 +11841,9 @@
         <v>20</v>
       </c>
       <c r="E388" s="6"/>
-      <c r="F388" s="6"/>
+      <c r="F388" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G388" s="11" t="s">
         <v>17</v>
       </c>
@@ -11728,7 +11852,9 @@
       <c r="J388" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K388" s="6"/>
+      <c r="K388" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="389" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
@@ -11744,7 +11870,9 @@
         <v>24</v>
       </c>
       <c r="E389" s="6"/>
-      <c r="F389" s="6"/>
+      <c r="F389" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G389" s="11" t="s">
         <v>17</v>
       </c>
@@ -11753,7 +11881,9 @@
       <c r="J389" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K389" s="6"/>
+      <c r="K389" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="390" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
@@ -12505,7 +12635,9 @@
       <c r="J415" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K415" s="6"/>
+      <c r="K415" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="416" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
@@ -12772,7 +12904,9 @@
       <c r="J424" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K424" s="6"/>
+      <c r="K424" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="425" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
@@ -13338,8 +13472,7 @@
       <c r="D444" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E444" s="6"/>
-      <c r="F444" s="6" t="s">
+      <c r="E444" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G444" s="11" t="s">
@@ -14137,7 +14270,9 @@
       <c r="J471" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K471" s="6"/>
+      <c r="K471" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="472" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="6">
@@ -14866,13 +15001,19 @@
       <c r="D500" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E500" s="6"/>
+      <c r="E500" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F500" s="6"/>
       <c r="G500" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H500" s="6"/>
-      <c r="I500" s="6"/>
+      <c r="H500" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I500" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J500" s="6"/>
       <c r="K500" s="6"/>
     </row>
@@ -15436,7 +15577,9 @@
       <c r="J522" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K522" s="9"/>
+      <c r="K522" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="523" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6">
@@ -15476,13 +15619,19 @@
       <c r="D524" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E524" s="6"/>
+      <c r="E524" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F524" s="6"/>
       <c r="G524" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H524" s="6"/>
-      <c r="I524" s="6"/>
+      <c r="H524" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I524" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J524" s="6" t="s">
         <v>30</v>
       </c>
@@ -15708,7 +15857,9 @@
       <c r="D532" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F532" s="6"/>
+      <c r="F532" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="G532" s="11" t="s">
         <v>18</v>
       </c>
@@ -15766,7 +15917,9 @@
         <v>24</v>
       </c>
       <c r="E534" s="6"/>
-      <c r="F534" s="6"/>
+      <c r="F534" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G534" s="11" t="s">
         <v>18</v>
       </c>
@@ -15917,7 +16070,9 @@
         <v>24</v>
       </c>
       <c r="E539" s="6"/>
-      <c r="F539" s="6"/>
+      <c r="F539" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G539" s="11" t="s">
         <v>18</v>
       </c>
@@ -16310,17 +16465,25 @@
       <c r="D553" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E553" s="6"/>
+      <c r="E553" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F553" s="6"/>
       <c r="G553" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H553" s="6"/>
-      <c r="I553" s="6"/>
+      <c r="H553" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I553" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J553" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K553" s="6"/>
+      <c r="K553" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="554" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6">
@@ -16380,98 +16543,98 @@
       </c>
       <c r="K555" s="6"/>
     </row>
-    <row r="556" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="8">
+    <row r="556" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="6">
+        <v>1544.5</v>
+      </c>
+      <c r="B556" s="11">
+        <v>114</v>
+      </c>
+      <c r="C556" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E556" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F556" s="6"/>
+      <c r="G556" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H556" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I556" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J556" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K556" s="6"/>
+    </row>
+    <row r="557" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="8">
         <v>1545</v>
       </c>
-      <c r="B556" s="12">
+      <c r="B557" s="12">
         <v>114</v>
       </c>
-      <c r="C556" s="12" t="s">
+      <c r="C557" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D556" s="8" t="s">
+      <c r="D557" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E556" s="8"/>
-      <c r="F556" s="8" t="s">
+      <c r="E557" s="8"/>
+      <c r="F557" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G556" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H556" s="8"/>
-      <c r="I556" s="8"/>
-      <c r="J556" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K556" s="8"/>
-    </row>
-    <row r="557" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="9">
+      <c r="G557" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H557" s="8"/>
+      <c r="I557" s="8"/>
+      <c r="J557" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K557" s="8"/>
+    </row>
+    <row r="558" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="9">
         <v>1546</v>
       </c>
-      <c r="B557" s="10">
+      <c r="B558" s="10">
         <v>329</v>
       </c>
-      <c r="C557" s="10" t="s">
+      <c r="C558" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D557" s="9" t="s">
+      <c r="D558" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E557" s="9" t="s">
+      <c r="E558" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F557" s="9"/>
-      <c r="G557" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H557" s="9" t="s">
+      <c r="F558" s="9"/>
+      <c r="G558" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H558" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I557" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J557" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K557" s="9"/>
-    </row>
-    <row r="558" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="6">
-        <v>1547</v>
-      </c>
-      <c r="B558" s="11">
-        <v>329</v>
-      </c>
-      <c r="C558" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D558" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E558" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F558" s="6"/>
-      <c r="G558" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H558" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I558" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J558" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K558" s="6"/>
+      <c r="I558" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J558" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K558" s="9"/>
     </row>
     <row r="559" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B559" s="11">
         <v>329</v>
@@ -16483,7 +16646,7 @@
         <v>26</v>
       </c>
       <c r="E559" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F559" s="6"/>
       <c r="G559" s="11" t="s">
@@ -16502,7 +16665,7 @@
     </row>
     <row r="560" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B560" s="11">
         <v>329</v>
@@ -16513,15 +16676,19 @@
       <c r="D560" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E560" s="6"/>
-      <c r="F560" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="E560" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F560" s="6"/>
       <c r="G560" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H560" s="6"/>
-      <c r="I560" s="6"/>
+      <c r="H560" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I560" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J560" s="11" t="s">
         <v>30</v>
       </c>
@@ -16529,7 +16696,7 @@
     </row>
     <row r="561" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B561" s="11">
         <v>329</v>
@@ -16541,7 +16708,9 @@
         <v>26</v>
       </c>
       <c r="E561" s="6"/>
-      <c r="F561" s="6"/>
+      <c r="F561" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G561" s="11" t="s">
         <v>18</v>
       </c>
@@ -16550,11 +16719,13 @@
       <c r="J561" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K561" s="6"/>
+      <c r="K561" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="562" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B562" s="11">
         <v>329</v>
@@ -16565,29 +16736,25 @@
       <c r="D562" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E562" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F562" s="6"/>
+      <c r="E562" s="6"/>
+      <c r="F562" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G562" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H562" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I562" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H562" s="6"/>
+      <c r="I562" s="6"/>
       <c r="J562" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K562" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="563" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B563" s="11">
         <v>329</v>
@@ -16599,14 +16766,14 @@
         <v>26</v>
       </c>
       <c r="E563" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F563" s="6"/>
       <c r="G563" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H563" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I563" s="6" t="s">
         <v>33</v>
@@ -16614,11 +16781,13 @@
       <c r="J563" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K563" s="6"/>
+      <c r="K563" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="564" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B564" s="11">
         <v>329</v>
@@ -16630,7 +16799,7 @@
         <v>26</v>
       </c>
       <c r="E564" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F564" s="6"/>
       <c r="G564" s="11" t="s">
@@ -16649,7 +16818,7 @@
     </row>
     <row r="565" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B565" s="11">
         <v>329</v>
@@ -16661,7 +16830,7 @@
         <v>26</v>
       </c>
       <c r="E565" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F565" s="6"/>
       <c r="G565" s="11" t="s">
@@ -16676,13 +16845,11 @@
       <c r="J565" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K565" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K565" s="6"/>
     </row>
     <row r="566" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B566" s="11">
         <v>329</v>
@@ -16713,125 +16880,131 @@
         <v>53</v>
       </c>
     </row>
-    <row r="567" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="8">
+    <row r="567" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="6">
+        <v>1555</v>
+      </c>
+      <c r="B567" s="11">
+        <v>329</v>
+      </c>
+      <c r="C567" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D567" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E567" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F567" s="6"/>
+      <c r="G567" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H567" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I567" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J567" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K567" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="8">
         <v>1556</v>
       </c>
-      <c r="B567" s="12">
+      <c r="B568" s="12">
         <v>329</v>
       </c>
-      <c r="C567" s="12" t="s">
+      <c r="C568" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D567" s="8" t="s">
+      <c r="D568" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E567" s="8"/>
-      <c r="F567" s="8" t="s">
+      <c r="E568" s="8"/>
+      <c r="F568" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G567" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H567" s="8"/>
-      <c r="I567" s="8"/>
-      <c r="J567" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K567" s="8"/>
-    </row>
-    <row r="568" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="9">
+      <c r="G568" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H568" s="8"/>
+      <c r="I568" s="8"/>
+      <c r="J568" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K568" s="8"/>
+    </row>
+    <row r="569" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="9">
         <v>1557</v>
       </c>
-      <c r="B568" s="10">
+      <c r="B569" s="10">
         <v>16</v>
       </c>
-      <c r="C568" s="10" t="s">
+      <c r="C569" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D568" s="9" t="s">
+      <c r="D569" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E568" s="6" t="s">
+      <c r="E569" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F568" s="6" t="s">
+      <c r="F569" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G568" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H568" s="9"/>
-      <c r="I568" s="9"/>
-      <c r="J568" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K568" s="6" t="s">
+      <c r="G569" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H569" s="9"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K569" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="6">
-        <v>1558</v>
-      </c>
-      <c r="B569" s="11">
+    <row r="570" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="9">
+        <v>1557.5</v>
+      </c>
+      <c r="B570" s="10">
         <v>16</v>
       </c>
-      <c r="C569" s="11" t="s">
+      <c r="C570" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D569" s="6" t="s">
+      <c r="D570" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E569" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F569" s="6"/>
-      <c r="G569" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H569" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I569" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J569" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K569" s="6"/>
-    </row>
-    <row r="570" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="6">
-        <v>1559</v>
-      </c>
-      <c r="B570" s="11">
-        <v>16</v>
-      </c>
-      <c r="C570" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D570" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E570" s="6"/>
-      <c r="F570" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G570" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H570" s="6"/>
-      <c r="I570" s="6"/>
-      <c r="J570" s="11" t="s">
+      <c r="E570" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F570" s="6"/>
+      <c r="G570" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H570" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I570" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J570" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K570" s="6"/>
     </row>
     <row r="571" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="6">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B571" s="11">
         <v>16</v>
@@ -16843,17 +17016,17 @@
         <v>26</v>
       </c>
       <c r="E571" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F571" s="6"/>
       <c r="G571" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H571" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I571" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J571" s="11" t="s">
         <v>30</v>
@@ -16862,7 +17035,7 @@
     </row>
     <row r="572" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6">
-        <v>1561</v>
+        <v>1558.5</v>
       </c>
       <c r="B572" s="11">
         <v>16</v>
@@ -16874,11 +17047,9 @@
         <v>26</v>
       </c>
       <c r="E572" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F572" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F572" s="6"/>
       <c r="G572" s="11" t="s">
         <v>17</v>
       </c>
@@ -16894,70 +17065,64 @@
       <c r="K572" s="6"/>
     </row>
     <row r="573" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B573" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C573" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D573" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E573" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F573" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G573" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H573" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I573" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J573" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K573" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A573" s="6">
+        <v>1559</v>
+      </c>
+      <c r="B573" s="11">
+        <v>16</v>
+      </c>
+      <c r="C573" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D573" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E573" s="6"/>
+      <c r="F573" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G573" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H573" s="6"/>
+      <c r="I573" s="6"/>
+      <c r="J573" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K573" s="6"/>
     </row>
     <row r="574" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="6">
-        <v>1562</v>
-      </c>
-      <c r="B574" s="11">
-        <v>16</v>
+        <v>1559.5</v>
+      </c>
+      <c r="B574" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C574" s="11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E574" s="6"/>
-      <c r="F574" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E574" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F574" s="6"/>
       <c r="G574" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H574" s="6"/>
-      <c r="I574" s="6"/>
-      <c r="J574" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H574" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I574" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J574" s="11"/>
       <c r="K574" s="6"/>
     </row>
     <row r="575" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B575" s="11">
         <v>16</v>
@@ -16969,14 +17134,14 @@
         <v>26</v>
       </c>
       <c r="E575" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F575" s="6"/>
       <c r="G575" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H575" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I575" s="6" t="s">
         <v>33</v>
@@ -16988,7 +17153,7 @@
     </row>
     <row r="576" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6">
-        <v>1564</v>
+        <v>1560.5</v>
       </c>
       <c r="B576" s="11">
         <v>16</v>
@@ -17000,7 +17165,7 @@
         <v>26</v>
       </c>
       <c r="E576" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F576" s="6"/>
       <c r="G576" s="11" t="s">
@@ -17012,14 +17177,12 @@
       <c r="I576" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J576" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="J576" s="11"/>
       <c r="K576" s="6"/>
     </row>
     <row r="577" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B577" s="11">
         <v>16</v>
@@ -17030,52 +17193,64 @@
       <c r="D577" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E577" s="6"/>
-      <c r="F577" s="6"/>
+      <c r="E577" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F577" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G577" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H577" s="6"/>
-      <c r="I577" s="6"/>
+      <c r="H577" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I577" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J577" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K577" s="6"/>
     </row>
     <row r="578" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="6">
-        <v>1566</v>
-      </c>
-      <c r="B578" s="11">
-        <v>16</v>
-      </c>
-      <c r="C578" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D578" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E578" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F578" s="6"/>
-      <c r="G578" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H578" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I578" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J578" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K578" s="6"/>
+      <c r="A578" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D578" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H578" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J578" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K578" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="579" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="B579" s="11">
         <v>16</v>
@@ -17086,31 +17261,23 @@
       <c r="D579" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E579" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="E579" s="6"/>
       <c r="F579" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G579" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H579" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I579" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H579" s="6"/>
+      <c r="I579" s="6"/>
       <c r="J579" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K579" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K579" s="6"/>
     </row>
     <row r="580" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="B580" s="11">
         <v>16</v>
@@ -17121,100 +17288,116 @@
       <c r="D580" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E580" s="6"/>
-      <c r="F580" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="E580" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F580" s="6"/>
       <c r="G580" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H580" s="6"/>
-      <c r="I580" s="6"/>
+      <c r="H580" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J580" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K580" s="6"/>
-    </row>
-    <row r="581" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="8">
-        <v>1569</v>
-      </c>
-      <c r="B581" s="12">
+      <c r="K580" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="6">
+        <v>1564</v>
+      </c>
+      <c r="B581" s="11">
         <v>16</v>
       </c>
-      <c r="C581" s="12" t="s">
+      <c r="C581" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D581" s="8" t="s">
+      <c r="D581" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E581" s="8"/>
-      <c r="F581" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G581" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H581" s="8"/>
-      <c r="I581" s="8"/>
-      <c r="J581" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K581" s="8"/>
+      <c r="E581" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F581" s="6"/>
+      <c r="G581" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H581" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I581" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J581" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K581" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="582" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="9">
-        <v>1570</v>
-      </c>
-      <c r="B582" s="10">
-        <v>114</v>
-      </c>
-      <c r="C582" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D582" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E582" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F582" s="9"/>
-      <c r="G582" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H582" s="9" t="s">
+      <c r="A582" s="6">
+        <v>1565</v>
+      </c>
+      <c r="B582" s="11">
+        <v>16</v>
+      </c>
+      <c r="C582" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D582" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E582" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F582" s="6"/>
+      <c r="G582" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H582" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I582" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J582" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K582" s="9"/>
+      <c r="I582" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J582" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K582" s="6"/>
     </row>
     <row r="583" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="B583" s="11">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C583" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D583" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E583" s="6"/>
-      <c r="F583" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D583" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E583" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F583" s="6"/>
       <c r="G583" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H583" s="6"/>
-      <c r="I583" s="6"/>
+      <c r="H583" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I583" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J583" s="11" t="s">
         <v>30</v>
       </c>
@@ -17222,99 +17405,127 @@
     </row>
     <row r="584" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="B584" s="11">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C584" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D584" s="6"/>
-      <c r="E584" s="6"/>
-      <c r="F584" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D584" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E584" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F584" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G584" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H584" s="6"/>
-      <c r="I584" s="6"/>
+      <c r="H584" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I584" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J584" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K584" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K584" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="585" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="B585" s="11">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C585" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D585" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D585" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E585" s="6"/>
-      <c r="F585" s="6"/>
+      <c r="F585" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G585" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H585" s="6"/>
       <c r="I585" s="6"/>
       <c r="J585" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K585" s="6"/>
     </row>
-    <row r="586" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="6">
-        <v>1574</v>
-      </c>
-      <c r="B586" s="11">
+    <row r="586" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="8">
+        <v>1569</v>
+      </c>
+      <c r="B586" s="12">
+        <v>16</v>
+      </c>
+      <c r="C586" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D586" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E586" s="8"/>
+      <c r="F586" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G586" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H586" s="8"/>
+      <c r="I586" s="8"/>
+      <c r="J586" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K586" s="8"/>
+    </row>
+    <row r="587" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="9">
+        <v>1570</v>
+      </c>
+      <c r="B587" s="10">
         <v>114</v>
       </c>
-      <c r="C586" s="11" t="s">
+      <c r="C587" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D586" s="6"/>
-      <c r="E586" s="6"/>
-      <c r="F586" s="6"/>
-      <c r="G586" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H586" s="6"/>
-      <c r="I586" s="6"/>
-      <c r="J586" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K586" s="6"/>
-    </row>
-    <row r="587" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="6">
-        <v>1575</v>
-      </c>
-      <c r="B587" s="11">
-        <v>114</v>
-      </c>
-      <c r="C587" s="11" t="s">
+      <c r="D587" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D587" s="6"/>
-      <c r="E587" s="6"/>
-      <c r="F587" s="6"/>
-      <c r="G587" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H587" s="6"/>
-      <c r="I587" s="6"/>
-      <c r="J587" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K587" s="6"/>
+      <c r="E587" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F587" s="9"/>
+      <c r="G587" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I587" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J587" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K587" s="9"/>
     </row>
     <row r="588" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="B588" s="11">
         <v>114</v>
@@ -17322,22 +17533,26 @@
       <c r="C588" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D588" s="6"/>
+      <c r="D588" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="E588" s="6"/>
-      <c r="F588" s="6"/>
+      <c r="F588" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G588" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H588" s="6"/>
       <c r="I588" s="6"/>
-      <c r="J588" s="6" t="s">
-        <v>33</v>
+      <c r="J588" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="K588" s="6"/>
     </row>
     <row r="589" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="B589" s="11">
         <v>114</v>
@@ -17353,14 +17568,14 @@
       </c>
       <c r="H589" s="6"/>
       <c r="I589" s="6"/>
-      <c r="J589" s="6" t="s">
+      <c r="J589" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K589" s="6"/>
     </row>
     <row r="590" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="B590" s="11">
         <v>114</v>
@@ -17376,14 +17591,14 @@
       </c>
       <c r="H590" s="6"/>
       <c r="I590" s="6"/>
-      <c r="J590" s="6" t="s">
+      <c r="J590" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K590" s="6"/>
     </row>
     <row r="591" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="B591" s="11">
         <v>114</v>
@@ -17399,14 +17614,14 @@
       </c>
       <c r="H591" s="6"/>
       <c r="I591" s="6"/>
-      <c r="J591" s="6" t="s">
+      <c r="J591" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K591" s="6"/>
     </row>
     <row r="592" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="B592" s="11">
         <v>114</v>
@@ -17422,14 +17637,14 @@
       </c>
       <c r="H592" s="6"/>
       <c r="I592" s="6"/>
-      <c r="J592" s="6" t="s">
+      <c r="J592" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K592" s="6"/>
     </row>
     <row r="593" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="B593" s="11">
         <v>114</v>
@@ -17452,7 +17667,7 @@
     </row>
     <row r="594" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="B594" s="11">
         <v>114</v>
@@ -17473,214 +17688,178 @@
       </c>
       <c r="K594" s="6"/>
     </row>
-    <row r="595" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="8">
-        <v>1583</v>
-      </c>
-      <c r="B595" s="12">
+    <row r="595" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="6">
+        <v>1578</v>
+      </c>
+      <c r="B595" s="11">
         <v>114</v>
       </c>
-      <c r="C595" s="12" t="s">
+      <c r="C595" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D595" s="8"/>
-      <c r="E595" s="8"/>
-      <c r="F595" s="8"/>
-      <c r="G595" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H595" s="8"/>
-      <c r="I595" s="8"/>
-      <c r="J595" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K595" s="8"/>
+      <c r="D595" s="6"/>
+      <c r="E595" s="6"/>
+      <c r="F595" s="6"/>
+      <c r="G595" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H595" s="6"/>
+      <c r="I595" s="6"/>
+      <c r="J595" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K595" s="6"/>
     </row>
     <row r="596" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="9">
-        <v>1584</v>
-      </c>
-      <c r="B596" s="10">
-        <v>329</v>
-      </c>
-      <c r="C596" s="10" t="s">
+      <c r="A596" s="6">
+        <v>1579</v>
+      </c>
+      <c r="B596" s="11">
+        <v>114</v>
+      </c>
+      <c r="C596" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D596" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E596" s="9"/>
-      <c r="F596" s="9"/>
-      <c r="G596" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H596" s="9"/>
-      <c r="I596" s="9"/>
-      <c r="J596" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K596" s="9"/>
+      <c r="D596" s="6"/>
+      <c r="E596" s="6"/>
+      <c r="F596" s="6"/>
+      <c r="G596" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H596" s="6"/>
+      <c r="I596" s="6"/>
+      <c r="J596" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K596" s="6"/>
     </row>
     <row r="597" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="B597" s="11">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="C597" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D597" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E597" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D597" s="6"/>
+      <c r="E597" s="6"/>
       <c r="F597" s="6"/>
       <c r="G597" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H597" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I597" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J597" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="H597" s="6"/>
+      <c r="I597" s="6"/>
+      <c r="J597" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K597" s="6"/>
     </row>
     <row r="598" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="B598" s="11">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="C598" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D598" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E598" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="D598" s="6"/>
+      <c r="E598" s="6"/>
       <c r="F598" s="6"/>
       <c r="G598" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H598" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I598" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J598" s="11" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="H598" s="6"/>
+      <c r="I598" s="6"/>
+      <c r="J598" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K598" s="6"/>
     </row>
     <row r="599" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="B599" s="11">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="C599" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D599" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E599" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="D599" s="6"/>
+      <c r="E599" s="6"/>
       <c r="F599" s="6"/>
       <c r="G599" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H599" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H599" s="6"/>
+      <c r="I599" s="6"/>
+      <c r="J599" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K599" s="6"/>
+    </row>
+    <row r="600" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="8">
+        <v>1583</v>
+      </c>
+      <c r="B600" s="12">
+        <v>114</v>
+      </c>
+      <c r="C600" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D600" s="8"/>
+      <c r="E600" s="8"/>
+      <c r="F600" s="8"/>
+      <c r="G600" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H600" s="8"/>
+      <c r="I600" s="8"/>
+      <c r="J600" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K600" s="8"/>
+    </row>
+    <row r="601" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="9">
+        <v>1584</v>
+      </c>
+      <c r="B601" s="10">
+        <v>329</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D601" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E601" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F601" s="9"/>
+      <c r="G601" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H601" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I599" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J599" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K599" s="6"/>
-    </row>
-    <row r="600" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="6">
-        <v>1588</v>
-      </c>
-      <c r="B600" s="11">
-        <v>329</v>
-      </c>
-      <c r="C600" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D600" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E600" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F600" s="6"/>
-      <c r="G600" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H600" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I600" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J600" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K600" s="6"/>
-    </row>
-    <row r="601" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="6">
-        <v>1589</v>
-      </c>
-      <c r="B601" s="11">
-        <v>329</v>
-      </c>
-      <c r="C601" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D601" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E601" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F601" s="6"/>
-      <c r="G601" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H601" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I601" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J601" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K601" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I601" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J601" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K601" s="9"/>
     </row>
     <row r="602" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="B602" s="11">
         <v>329</v>
@@ -17692,17 +17871,17 @@
         <v>38</v>
       </c>
       <c r="E602" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F602" s="6"/>
       <c r="G602" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H602" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I602" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J602" s="11" t="s">
         <v>30</v>
@@ -17711,7 +17890,7 @@
     </row>
     <row r="603" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="B603" s="11">
         <v>329</v>
@@ -17723,14 +17902,14 @@
         <v>38</v>
       </c>
       <c r="E603" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F603" s="6"/>
       <c r="G603" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H603" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I603" s="6" t="s">
         <v>33</v>
@@ -17738,13 +17917,11 @@
       <c r="J603" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K603" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K603" s="6"/>
     </row>
     <row r="604" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="B604" s="11">
         <v>329</v>
@@ -17755,15 +17932,19 @@
       <c r="D604" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E604" s="6"/>
-      <c r="F604" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="E604" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F604" s="6"/>
       <c r="G604" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H604" s="6"/>
-      <c r="I604" s="6"/>
+      <c r="H604" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I604" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J604" s="11" t="s">
         <v>30</v>
       </c>
@@ -17771,7 +17952,7 @@
     </row>
     <row r="605" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="B605" s="11">
         <v>329</v>
@@ -17782,15 +17963,19 @@
       <c r="D605" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E605" s="6"/>
-      <c r="F605" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="E605" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F605" s="6"/>
       <c r="G605" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H605" s="6"/>
-      <c r="I605" s="6"/>
+      <c r="H605" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I605" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J605" s="11" t="s">
         <v>30</v>
       </c>
@@ -17798,7 +17983,7 @@
     </row>
     <row r="606" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="B606" s="11">
         <v>329</v>
@@ -17831,7 +18016,7 @@
     </row>
     <row r="607" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="B607" s="11">
         <v>329</v>
@@ -17843,7 +18028,7 @@
         <v>38</v>
       </c>
       <c r="E607" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F607" s="6"/>
       <c r="G607" s="11" t="s">
@@ -17858,13 +18043,11 @@
       <c r="J607" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K607" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K607" s="6"/>
     </row>
     <row r="608" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="B608" s="11">
         <v>329</v>
@@ -17875,15 +18058,15 @@
       <c r="D608" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E608" t="s">
-        <v>58</v>
+      <c r="E608" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F608" s="6"/>
       <c r="G608" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H608" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I608" s="6" t="s">
         <v>33</v>
@@ -17891,11 +18074,13 @@
       <c r="J608" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K608" s="2"/>
+      <c r="K608" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="609" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="B609" s="11">
         <v>329</v>
@@ -17908,7 +18093,7 @@
       </c>
       <c r="E609" s="6"/>
       <c r="F609" s="6" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G609" s="11" t="s">
         <v>18</v>
@@ -17922,7 +18107,7 @@
     </row>
     <row r="610" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="B610" s="11">
         <v>329</v>
@@ -17933,29 +18118,23 @@
       <c r="D610" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E610" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F610" s="6"/>
+      <c r="E610" s="6"/>
+      <c r="F610" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G610" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H610" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I610" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H610" s="6"/>
+      <c r="I610" s="6"/>
       <c r="J610" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K610" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K610" s="6"/>
     </row>
     <row r="611" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="B611" s="11">
         <v>329</v>
@@ -17967,7 +18146,7 @@
         <v>38</v>
       </c>
       <c r="E611" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F611" s="6"/>
       <c r="G611" s="11" t="s">
@@ -17977,18 +18156,18 @@
         <v>44</v>
       </c>
       <c r="I611" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J611" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K611" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="612" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B612" s="11">
         <v>329</v>
@@ -18021,7 +18200,7 @@
     </row>
     <row r="613" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="B613" s="11">
         <v>329</v>
@@ -18032,27 +18211,27 @@
       <c r="D613" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E613" s="6" t="s">
-        <v>47</v>
+      <c r="E613" t="s">
+        <v>58</v>
       </c>
       <c r="F613" s="6"/>
       <c r="G613" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H613" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I613" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J613" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K613" s="6"/>
+      <c r="K613" s="2"/>
     </row>
     <row r="614" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="B614" s="11">
         <v>329</v>
@@ -18065,7 +18244,7 @@
       </c>
       <c r="E614" s="6"/>
       <c r="F614" s="6" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G614" s="11" t="s">
         <v>18</v>
@@ -18079,7 +18258,7 @@
     </row>
     <row r="615" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="B615" s="11">
         <v>329</v>
@@ -18106,11 +18285,13 @@
       <c r="J615" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K615" s="6"/>
+      <c r="K615" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="616" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="B616" s="11">
         <v>329</v>
@@ -18119,10 +18300,10 @@
         <v>38</v>
       </c>
       <c r="D616" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E616" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F616" s="6"/>
       <c r="G616" s="11" t="s">
@@ -18132,16 +18313,18 @@
         <v>44</v>
       </c>
       <c r="I616" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J616" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K616" s="6"/>
+      <c r="K616" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="617" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="B617" s="11">
         <v>329</v>
@@ -18150,23 +18333,31 @@
         <v>38</v>
       </c>
       <c r="D617" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E617" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="E617" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F617" s="6"/>
       <c r="G617" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H617" s="6"/>
-      <c r="I617" s="6"/>
+      <c r="H617" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I617" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J617" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K617" s="6"/>
+      <c r="K617" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="618" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="B618" s="11">
         <v>329</v>
@@ -18175,31 +18366,29 @@
         <v>38</v>
       </c>
       <c r="D618" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F618" s="6"/>
       <c r="G618" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H618" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I618" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J618" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K618" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K618" s="6"/>
     </row>
     <row r="619" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="B619" s="11">
         <v>329</v>
@@ -18208,31 +18397,25 @@
         <v>38</v>
       </c>
       <c r="D619" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E619" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F619" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="E619" s="6"/>
+      <c r="F619" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G619" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H619" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I619" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H619" s="6"/>
+      <c r="I619" s="6"/>
       <c r="J619" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K619" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K619" s="6"/>
     </row>
     <row r="620" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="B620" s="11">
         <v>329</v>
@@ -18241,17 +18424,21 @@
         <v>38</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E620" s="6"/>
-      <c r="F620" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E620" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F620" s="6"/>
       <c r="G620" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H620" s="6"/>
-      <c r="I620" s="6"/>
+      <c r="H620" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I620" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J620" s="11" t="s">
         <v>30</v>
       </c>
@@ -18259,7 +18446,7 @@
     </row>
     <row r="621" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="B621" s="11">
         <v>329</v>
@@ -18271,14 +18458,14 @@
         <v>40</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F621" s="6"/>
       <c r="G621" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H621" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I621" s="6" t="s">
         <v>33</v>
@@ -18290,7 +18477,7 @@
     </row>
     <row r="622" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="B622" s="11">
         <v>329</v>
@@ -18298,22 +18485,30 @@
       <c r="C622" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D622" s="6"/>
-      <c r="E622" s="6"/>
+      <c r="D622" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E622" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F622" s="6"/>
       <c r="G622" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H622" s="6"/>
-      <c r="I622" s="6"/>
-      <c r="J622" s="6" t="s">
-        <v>33</v>
+      <c r="H622" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I622" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J622" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="K622" s="6"/>
     </row>
     <row r="623" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="B623" s="11">
         <v>329</v>
@@ -18322,7 +18517,7 @@
         <v>38</v>
       </c>
       <c r="D623" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E623" s="6" t="s">
         <v>66</v>
@@ -18332,10 +18527,10 @@
         <v>18</v>
       </c>
       <c r="H623" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I623" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J623" s="11" t="s">
         <v>30</v>
@@ -18346,7 +18541,7 @@
     </row>
     <row r="624" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="B624" s="11">
         <v>329</v>
@@ -18355,10 +18550,10 @@
         <v>38</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E624" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F624" s="6"/>
       <c r="G624" s="11" t="s">
@@ -18373,46 +18568,40 @@
       <c r="J624" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K624" s="6"/>
+      <c r="K624" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="625" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B625" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C625" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D625" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E625" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F625" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G625" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H625" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I625" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J625" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K625" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A625" s="6">
+        <v>1608</v>
+      </c>
+      <c r="B625" s="11">
+        <v>329</v>
+      </c>
+      <c r="C625" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D625" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E625" s="6"/>
+      <c r="F625" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G625" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H625" s="6"/>
+      <c r="I625" s="6"/>
+      <c r="J625" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K625" s="6"/>
     </row>
     <row r="626" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="B626" s="11">
         <v>329</v>
@@ -18421,27 +18610,29 @@
         <v>38</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E626" s="6"/>
-      <c r="F626" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E626" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F626" s="6"/>
       <c r="G626" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H626" s="6"/>
-      <c r="I626" s="6"/>
+      <c r="H626" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I626" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J626" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K626" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K626" s="6"/>
     </row>
     <row r="627" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B627" s="11">
         <v>329</v>
@@ -18451,22 +18642,20 @@
       </c>
       <c r="D627" s="6"/>
       <c r="E627" s="6"/>
-      <c r="F627" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="F627" s="6"/>
       <c r="G627" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H627" s="6"/>
       <c r="I627" s="6"/>
-      <c r="J627" s="11" t="s">
-        <v>30</v>
+      <c r="J627" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K627" s="6"/>
     </row>
     <row r="628" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B628" s="11">
         <v>329</v>
@@ -18475,10 +18664,10 @@
         <v>38</v>
       </c>
       <c r="D628" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E628" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F628" s="6"/>
       <c r="G628" s="11" t="s">
@@ -18493,11 +18682,13 @@
       <c r="J628" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K628" s="6"/>
+      <c r="K628" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="629" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B629" s="11">
         <v>329</v>
@@ -18509,7 +18700,7 @@
         <v>41</v>
       </c>
       <c r="E629" s="6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F629" s="6"/>
       <c r="G629" s="11" t="s">
@@ -18527,37 +18718,43 @@
       <c r="K629" s="6"/>
     </row>
     <row r="630" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="6">
-        <v>1617</v>
-      </c>
-      <c r="B630" s="11">
-        <v>329</v>
-      </c>
-      <c r="C630" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D630" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E630" s="6"/>
-      <c r="F630" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G630" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H630" s="6"/>
-      <c r="I630" s="6"/>
-      <c r="J630" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K630" s="6" t="s">
-        <v>53</v>
+      <c r="A630" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D630" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F630" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G630" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H630" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I630" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J630" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K630" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="631" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="B631" s="11">
         <v>329</v>
@@ -18566,10 +18763,12 @@
         <v>38</v>
       </c>
       <c r="D631" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E631" s="6"/>
-      <c r="F631" s="6"/>
+      <c r="F631" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G631" s="11" t="s">
         <v>18</v>
       </c>
@@ -18578,11 +18777,13 @@
       <c r="J631" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K631" s="6"/>
+      <c r="K631" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="632" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="B632" s="11">
         <v>329</v>
@@ -18600,12 +18801,14 @@
       </c>
       <c r="H632" s="6"/>
       <c r="I632" s="6"/>
-      <c r="J632" s="6"/>
+      <c r="J632" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K632" s="6"/>
     </row>
     <row r="633" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="B633" s="11">
         <v>329</v>
@@ -18617,26 +18820,26 @@
         <v>41</v>
       </c>
       <c r="E633" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F633" s="6"/>
       <c r="G633" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H633" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I633" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J633" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J633" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K633" s="6"/>
     </row>
     <row r="634" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="B634" s="11">
         <v>329</v>
@@ -18644,22 +18847,30 @@
       <c r="C634" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D634" s="6"/>
-      <c r="E634" s="6"/>
+      <c r="D634" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E634" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F634" s="6"/>
       <c r="G634" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H634" s="6"/>
-      <c r="I634" s="6"/>
-      <c r="J634" s="6" t="s">
-        <v>33</v>
+      <c r="H634" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I634" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J634" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="K634" s="6"/>
     </row>
     <row r="635" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="B635" s="11">
         <v>329</v>
@@ -18668,29 +18879,27 @@
         <v>38</v>
       </c>
       <c r="D635" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E635" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E635" s="6"/>
+      <c r="F635" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F635" s="6"/>
       <c r="G635" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H635" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I635" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J635" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K635" s="6"/>
+      <c r="H635" s="6"/>
+      <c r="I635" s="6"/>
+      <c r="J635" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K635" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="636" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="B636" s="11">
         <v>329</v>
@@ -18701,27 +18910,25 @@
       <c r="D636" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E636" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F636" s="6"/>
+      <c r="E636" s="6"/>
+      <c r="F636" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G636" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H636" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I636" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J636" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K636" s="6"/>
+      <c r="H636" s="6"/>
+      <c r="I636" s="6"/>
+      <c r="J636" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K636" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="637" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B637" s="11">
         <v>329</v>
@@ -18729,24 +18936,22 @@
       <c r="C637" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D637" s="6" t="s">
+      <c r="D637" s="6"/>
+      <c r="E637" s="6"/>
+      <c r="F637" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E637" s="6"/>
-      <c r="F637" s="6"/>
       <c r="G637" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H637" s="6"/>
       <c r="I637" s="6"/>
-      <c r="J637" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="J637" s="6"/>
       <c r="K637" s="6"/>
     </row>
     <row r="638" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="B638" s="11">
         <v>329</v>
@@ -18755,31 +18960,29 @@
         <v>38</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E638" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F638" s="6"/>
       <c r="G638" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H638" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I638" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J638" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K638" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K638" s="6"/>
     </row>
     <row r="639" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="B639" s="11">
         <v>329</v>
@@ -18787,32 +18990,22 @@
       <c r="C639" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D639" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E639" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D639" s="6"/>
+      <c r="E639" s="6"/>
       <c r="F639" s="6"/>
       <c r="G639" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H639" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I639" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H639" s="6"/>
+      <c r="I639" s="6"/>
       <c r="J639" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K639" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K639" s="6"/>
     </row>
     <row r="640" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="B640" s="11">
         <v>329</v>
@@ -18821,17 +19014,17 @@
         <v>38</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E640" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F640" s="6"/>
       <c r="G640" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H640" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I640" s="6" t="s">
         <v>33</v>
@@ -18843,7 +19036,7 @@
     </row>
     <row r="641" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="B641" s="11">
         <v>329</v>
@@ -18855,17 +19048,17 @@
         <v>40</v>
       </c>
       <c r="E641" s="6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F641" s="6"/>
       <c r="G641" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H641" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I641" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J641" s="6" t="s">
         <v>30</v>
@@ -18874,7 +19067,7 @@
     </row>
     <row r="642" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="B642" s="11">
         <v>329</v>
@@ -18885,23 +19078,29 @@
       <c r="D642" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E642" s="6"/>
+      <c r="E642" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F642" s="6"/>
       <c r="G642" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H642" s="6"/>
-      <c r="I642" s="6"/>
+      <c r="H642" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I642" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J642" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K642" s="6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="643" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="B643" s="11">
         <v>329</v>
@@ -18909,22 +19108,32 @@
       <c r="C643" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D643" s="6"/>
-      <c r="E643" s="6"/>
+      <c r="D643" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E643" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F643" s="6"/>
       <c r="G643" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H643" s="6"/>
-      <c r="I643" s="6"/>
+      <c r="H643" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I643" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J643" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K643" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K643" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="644" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="B644" s="11">
         <v>329</v>
@@ -18932,22 +19141,32 @@
       <c r="C644" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D644" s="6"/>
-      <c r="E644" s="6"/>
+      <c r="D644" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E644" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F644" s="6"/>
       <c r="G644" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H644" s="6"/>
-      <c r="I644" s="6"/>
+      <c r="H644" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I644" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J644" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K644" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K644" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="645" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="B645" s="11">
         <v>329</v>
@@ -18958,15 +19177,19 @@
       <c r="D645" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E645" s="6"/>
-      <c r="F645" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="E645" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F645" s="6"/>
       <c r="G645" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H645" s="6"/>
-      <c r="I645" s="6"/>
+      <c r="H645" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I645" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J645" s="6" t="s">
         <v>30</v>
       </c>
@@ -18974,7 +19197,7 @@
     </row>
     <row r="646" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="B646" s="11">
         <v>329</v>
@@ -18983,20 +19206,20 @@
         <v>38</v>
       </c>
       <c r="D646" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E646" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F646" s="6"/>
       <c r="G646" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H646" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I646" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J646" s="6" t="s">
         <v>30</v>
@@ -19005,7 +19228,7 @@
     </row>
     <row r="647" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="B647" s="11">
         <v>329</v>
@@ -19016,27 +19239,25 @@
       <c r="D647" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E647" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F647" s="6"/>
+      <c r="E647" s="6"/>
+      <c r="F647" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G647" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H647" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I647" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H647" s="6"/>
+      <c r="I647" s="6"/>
       <c r="J647" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K647" s="6"/>
+      <c r="K647" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="648" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="B648" s="11">
         <v>329</v>
@@ -19052,14 +19273,14 @@
       </c>
       <c r="H648" s="6"/>
       <c r="I648" s="6"/>
-      <c r="J648" s="6"/>
-      <c r="K648" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="J648" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K648" s="6"/>
     </row>
     <row r="649" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="B649" s="11">
         <v>329</v>
@@ -19075,14 +19296,14 @@
       </c>
       <c r="H649" s="6"/>
       <c r="I649" s="6"/>
-      <c r="J649" s="6"/>
-      <c r="K649" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="J649" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K649" s="6"/>
     </row>
     <row r="650" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="B650" s="11">
         <v>329</v>
@@ -19094,7 +19315,9 @@
         <v>40</v>
       </c>
       <c r="E650" s="6"/>
-      <c r="F650" s="6"/>
+      <c r="F650" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G650" s="11" t="s">
         <v>18</v>
       </c>
@@ -19103,11 +19326,13 @@
       <c r="J650" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K650" s="6"/>
+      <c r="K650" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="651" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="B651" s="11">
         <v>329</v>
@@ -19118,15 +19343,19 @@
       <c r="D651" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E651" s="6"/>
-      <c r="F651" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="E651" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F651" s="6"/>
       <c r="G651" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H651" s="6"/>
-      <c r="I651" s="6"/>
+      <c r="H651" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I651" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J651" s="6" t="s">
         <v>30</v>
       </c>
@@ -19134,7 +19363,7 @@
     </row>
     <row r="652" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="B652" s="11">
         <v>329</v>
@@ -19142,22 +19371,30 @@
       <c r="C652" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D652" s="6"/>
-      <c r="E652" s="6"/>
-      <c r="F652" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D652" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E652" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F652" s="6"/>
       <c r="G652" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H652" s="6"/>
-      <c r="I652" s="6"/>
-      <c r="J652" s="6"/>
+      <c r="H652" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I652" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J652" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K652" s="6"/>
     </row>
     <row r="653" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="B653" s="11">
         <v>329</v>
@@ -19165,26 +19402,24 @@
       <c r="C653" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D653" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D653" s="6"/>
       <c r="E653" s="6"/>
       <c r="F653" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G653" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H653" s="6"/>
       <c r="I653" s="6"/>
-      <c r="J653" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K653" s="6"/>
+      <c r="J653" s="6"/>
+      <c r="K653" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="654" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="B654" s="11">
         <v>329</v>
@@ -19192,30 +19427,24 @@
       <c r="C654" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D654" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E654" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F654" s="6"/>
+      <c r="D654" s="6"/>
+      <c r="E654" s="6"/>
+      <c r="F654" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G654" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H654" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I654" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J654" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K654" s="6"/>
+      <c r="H654" s="6"/>
+      <c r="I654" s="6"/>
+      <c r="J654" s="6"/>
+      <c r="K654" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="655" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="B655" s="11">
         <v>329</v>
@@ -19223,22 +19452,24 @@
       <c r="C655" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D655" s="6"/>
+      <c r="D655" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E655" s="6"/>
-      <c r="F655" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F655" s="6"/>
       <c r="G655" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H655" s="6"/>
       <c r="I655" s="6"/>
-      <c r="J655" s="6"/>
+      <c r="J655" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K655" s="6"/>
     </row>
     <row r="656" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="B656" s="11">
         <v>329</v>
@@ -19247,10 +19478,12 @@
         <v>38</v>
       </c>
       <c r="D656" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E656" s="6"/>
-      <c r="F656" s="6"/>
+      <c r="F656" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G656" s="11" t="s">
         <v>18</v>
       </c>
@@ -19259,13 +19492,11 @@
       <c r="J656" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K656" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="K656" s="6"/>
     </row>
     <row r="657" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="B657" s="11">
         <v>329</v>
@@ -19274,25 +19505,21 @@
         <v>38</v>
       </c>
       <c r="D657" s="6"/>
-      <c r="E657" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F657" s="6"/>
+      <c r="E657" s="6"/>
+      <c r="F657" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G657" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H657" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I657" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H657" s="6"/>
+      <c r="I657" s="6"/>
       <c r="J657" s="6"/>
       <c r="K657" s="6"/>
     </row>
     <row r="658" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="B658" s="11">
         <v>329</v>
@@ -19304,7 +19531,9 @@
         <v>40</v>
       </c>
       <c r="E658" s="6"/>
-      <c r="F658" s="6"/>
+      <c r="F658" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="G658" s="11" t="s">
         <v>18</v>
       </c>
@@ -19317,7 +19546,7 @@
     </row>
     <row r="659" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="B659" s="11">
         <v>329</v>
@@ -19329,28 +19558,26 @@
         <v>41</v>
       </c>
       <c r="E659" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F659" s="6"/>
       <c r="G659" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H659" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I659" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J659" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K659" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K659" s="6"/>
     </row>
     <row r="660" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="B660" s="11">
         <v>329</v>
@@ -19358,30 +19585,22 @@
       <c r="C660" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D660" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E660" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F660" s="6"/>
+      <c r="D660" s="6"/>
+      <c r="E660" s="6"/>
+      <c r="F660" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G660" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H660" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I660" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J660" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H660" s="6"/>
+      <c r="I660" s="6"/>
+      <c r="J660" s="6"/>
       <c r="K660" s="6"/>
     </row>
     <row r="661" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="B661" s="11">
         <v>329</v>
@@ -19392,29 +19611,25 @@
       <c r="D661" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E661" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F661" s="6"/>
+      <c r="E661" s="6"/>
+      <c r="F661" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G661" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H661" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I661" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H661" s="6"/>
+      <c r="I661" s="6"/>
       <c r="J661" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K661" s="6" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="662" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="B662" s="11">
         <v>329</v>
@@ -19422,30 +19637,26 @@
       <c r="C662" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D662" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D662" s="6"/>
       <c r="E662" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F662" s="6"/>
       <c r="G662" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H662" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I662" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J662" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="J662" s="6"/>
       <c r="K662" s="6"/>
     </row>
     <row r="663" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="B663" s="11">
         <v>329</v>
@@ -19454,10 +19665,10 @@
         <v>38</v>
       </c>
       <c r="D663" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E663" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F663" s="6"/>
       <c r="G663" s="11" t="s">
@@ -19476,7 +19687,7 @@
     </row>
     <row r="664" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="B664" s="11">
         <v>329</v>
@@ -19485,25 +19696,31 @@
         <v>38</v>
       </c>
       <c r="D664" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E664" s="6"/>
-      <c r="F664" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E664" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F664" s="6"/>
       <c r="G664" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H664" s="6"/>
-      <c r="I664" s="6"/>
+      <c r="H664" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I664" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J664" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K664" s="6"/>
+      <c r="K664" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="665" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="B665" s="11">
         <v>329</v>
@@ -19512,17 +19729,21 @@
         <v>38</v>
       </c>
       <c r="D665" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E665" s="6"/>
-      <c r="F665" t="s">
-        <v>54</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E665" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F665" s="6"/>
       <c r="G665" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H665" s="6"/>
-      <c r="I665" s="6"/>
+      <c r="H665" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I665" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J665" s="6" t="s">
         <v>30</v>
       </c>
@@ -19530,7 +19751,7 @@
     </row>
     <row r="666" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="B666" s="11">
         <v>329</v>
@@ -19538,24 +19759,32 @@
       <c r="C666" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D666" s="6"/>
-      <c r="E666" s="6"/>
-      <c r="F666" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D666" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E666" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F666" s="6"/>
       <c r="G666" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H666" s="6"/>
-      <c r="I666" s="6"/>
+      <c r="H666" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I666" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J666" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K666" s="6"/>
+      <c r="K666" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="667" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="B667" s="11">
         <v>329</v>
@@ -19566,15 +19795,19 @@
       <c r="D667" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E667" s="6"/>
-      <c r="F667" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="E667" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F667" s="6"/>
       <c r="G667" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H667" s="6"/>
-      <c r="I667" s="6"/>
+      <c r="H667" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I667" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J667" s="6" t="s">
         <v>30</v>
       </c>
@@ -19582,7 +19815,7 @@
     </row>
     <row r="668" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="B668" s="11">
         <v>329</v>
@@ -19590,28 +19823,30 @@
       <c r="C668" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D668" s="6"/>
+      <c r="D668" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E668" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H668" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I668" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J668" s="6"/>
-      <c r="K668" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="J668" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K668" s="6"/>
     </row>
     <row r="669" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="B669" s="11">
         <v>329</v>
@@ -19619,28 +19854,26 @@
       <c r="C669" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D669" s="6"/>
-      <c r="E669" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F669" s="6"/>
+      <c r="D669" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E669" s="6"/>
+      <c r="F669" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="G669" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H669" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I669" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J669" s="6"/>
-      <c r="K669" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H669" s="6"/>
+      <c r="I669" s="6"/>
+      <c r="J669" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K669" s="6"/>
     </row>
     <row r="670" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="B670" s="11">
         <v>329</v>
@@ -19651,29 +19884,23 @@
       <c r="D670" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E670" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F670" s="6"/>
+      <c r="E670" s="6"/>
+      <c r="F670" t="s">
+        <v>54</v>
+      </c>
       <c r="G670" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H670" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I670" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H670" s="6"/>
+      <c r="I670" s="6"/>
       <c r="J670" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K670" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K670" s="6"/>
     </row>
     <row r="671" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="B671" s="11">
         <v>329</v>
@@ -19681,12 +19908,10 @@
       <c r="C671" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D671" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D671" s="6"/>
       <c r="E671" s="6"/>
       <c r="F671" s="6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G671" s="11" t="s">
         <v>18</v>
@@ -19696,13 +19921,11 @@
       <c r="J671" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K671" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K671" s="6"/>
     </row>
     <row r="672" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="B672" s="11">
         <v>329</v>
@@ -19710,10 +19933,12 @@
       <c r="C672" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D672" s="6"/>
+      <c r="D672" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E672" s="6"/>
       <c r="F672" s="6" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G672" s="11" t="s">
         <v>18</v>
@@ -19727,7 +19952,7 @@
     </row>
     <row r="673" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="B673" s="11">
         <v>329</v>
@@ -19735,26 +19960,28 @@
       <c r="C673" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D673" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E673" s="6"/>
-      <c r="F673" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="D673" s="6"/>
+      <c r="E673" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F673" s="6"/>
       <c r="G673" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H673" s="6"/>
-      <c r="I673" s="6"/>
-      <c r="J673" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K673" s="6"/>
+      <c r="H673" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I673" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J673" s="6"/>
+      <c r="K673" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="674" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="B674" s="11">
         <v>329</v>
@@ -19762,24 +19989,28 @@
       <c r="C674" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D674" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E674" s="6"/>
+      <c r="D674" s="6"/>
+      <c r="E674" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F674" s="6"/>
       <c r="G674" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H674" s="6"/>
-      <c r="I674" s="6"/>
-      <c r="J674" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K674" s="6"/>
+      <c r="H674" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I674" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J674" s="6"/>
+      <c r="K674" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="675" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="B675" s="11">
         <v>329</v>
@@ -19797,8 +20028,12 @@
       <c r="G675" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H675" s="6"/>
-      <c r="I675" s="6"/>
+      <c r="H675" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I675" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J675" s="6" t="s">
         <v>30</v>
       </c>
@@ -19808,7 +20043,7 @@
     </row>
     <row r="676" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="B676" s="11">
         <v>329</v>
@@ -19817,64 +20052,52 @@
         <v>38</v>
       </c>
       <c r="D676" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E676" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F676" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="E676" s="6"/>
+      <c r="F676" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G676" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H676" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I676" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H676" s="6"/>
+      <c r="I676" s="6"/>
       <c r="J676" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K676" s="6"/>
+      <c r="K676" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="677" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B677" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C677" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D677" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E677" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F677" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G677" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H677" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I677" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J677" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K677" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A677" s="6">
+        <v>1659</v>
+      </c>
+      <c r="B677" s="11">
+        <v>329</v>
+      </c>
+      <c r="C677" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D677" s="6"/>
+      <c r="E677" s="6"/>
+      <c r="F677" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G677" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H677" s="6"/>
+      <c r="I677" s="6"/>
+      <c r="J677" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K677" s="6"/>
     </row>
     <row r="678" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="6">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B678" s="11">
         <v>329</v>
@@ -19883,27 +20106,25 @@
         <v>38</v>
       </c>
       <c r="D678" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E678" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F678" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E678" s="6"/>
+      <c r="F678" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G678" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H678" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I678" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J678" s="6"/>
+      <c r="H678" s="6"/>
+      <c r="I678" s="6"/>
+      <c r="J678" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K678" s="6"/>
     </row>
     <row r="679" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="6">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B679" s="11">
         <v>329</v>
@@ -19914,27 +20135,23 @@
       <c r="D679" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E679" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F679" s="6"/>
+      <c r="E679" s="6"/>
+      <c r="F679" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G679" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H679" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I679" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J679" s="6"/>
-      <c r="K679" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H679" s="6"/>
+      <c r="I679" s="6"/>
+      <c r="J679" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K679" s="6"/>
     </row>
     <row r="680" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="6">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B680" s="11">
         <v>329</v>
@@ -19942,24 +20159,32 @@
       <c r="C680" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D680" s="6"/>
-      <c r="E680" s="6"/>
-      <c r="F680" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D680" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E680" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F680" s="6"/>
       <c r="G680" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H680" s="6"/>
-      <c r="I680" s="6"/>
+      <c r="H680" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I680" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J680" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K680" s="6"/>
+      <c r="K680" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="681" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="6">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="B681" s="11">
         <v>329</v>
@@ -19968,10 +20193,10 @@
         <v>38</v>
       </c>
       <c r="D681" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E681" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F681" s="6"/>
       <c r="G681" s="11" t="s">
@@ -19983,43 +20208,49 @@
       <c r="I681" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J681" s="6"/>
+      <c r="J681" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K681" s="6"/>
     </row>
     <row r="682" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="6">
-        <v>1668</v>
-      </c>
-      <c r="B682" s="11">
-        <v>329</v>
-      </c>
-      <c r="C682" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D682" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E682" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F682" s="6"/>
-      <c r="G682" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H682" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I682" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J682" s="6"/>
-      <c r="K682" s="6" t="s">
-        <v>64</v>
+      <c r="A682" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D682" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E682" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F682" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G682" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H682" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I682" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J682" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K682" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="683" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="6">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="B683" s="11">
         <v>329</v>
@@ -20027,132 +20258,144 @@
       <c r="C683" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D683" s="6"/>
-      <c r="E683" s="6"/>
-      <c r="F683" s="6" t="s">
+      <c r="D683" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E683" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F683" s="6"/>
+      <c r="G683" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H683" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I683" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J683" s="6"/>
+      <c r="K683" s="6"/>
+    </row>
+    <row r="684" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="6">
+        <v>1665</v>
+      </c>
+      <c r="B684" s="11">
+        <v>329</v>
+      </c>
+      <c r="C684" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D684" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E684" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F684" s="6"/>
+      <c r="G684" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H684" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I684" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J684" s="6"/>
+      <c r="K684" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="6">
+        <v>1666</v>
+      </c>
+      <c r="B685" s="11">
+        <v>329</v>
+      </c>
+      <c r="C685" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D685" s="6"/>
+      <c r="E685" s="6"/>
+      <c r="F685" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G683" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H683" s="6"/>
-      <c r="I683" s="6"/>
-      <c r="J683" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K683" s="6"/>
-    </row>
-    <row r="684" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="8">
-        <v>1670</v>
-      </c>
-      <c r="B684" s="12">
+      <c r="G685" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H685" s="6"/>
+      <c r="I685" s="6"/>
+      <c r="J685" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K685" s="6"/>
+    </row>
+    <row r="686" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="6">
+        <v>1667</v>
+      </c>
+      <c r="B686" s="11">
         <v>329</v>
       </c>
-      <c r="C684" s="12" t="s">
+      <c r="C686" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D684" s="8" t="s">
+      <c r="D686" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E686" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F686" s="6"/>
+      <c r="G686" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H686" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I686" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J686" s="6"/>
+      <c r="K686" s="6"/>
+    </row>
+    <row r="687" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="6">
+        <v>1668</v>
+      </c>
+      <c r="B687" s="11">
+        <v>329</v>
+      </c>
+      <c r="C687" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D687" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E684" s="8" t="s">
+      <c r="E687" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F684" s="8"/>
-      <c r="G684" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H684" s="8" t="s">
+      <c r="F687" s="6"/>
+      <c r="G687" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H687" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I684" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J684" s="8"/>
-      <c r="K684" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="685" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A685" s="9">
-        <v>1671</v>
-      </c>
-      <c r="B685" s="10">
-        <v>16</v>
-      </c>
-      <c r="C685" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D685" s="9"/>
-      <c r="E685" s="9"/>
-      <c r="F685" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G685" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H685" s="9"/>
-      <c r="I685" s="9"/>
-      <c r="J685" s="9"/>
-      <c r="K685" s="9"/>
-    </row>
-    <row r="686" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="8">
-        <v>1672</v>
-      </c>
-      <c r="B686" s="12">
-        <v>16</v>
-      </c>
-      <c r="C686" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D686" s="8"/>
-      <c r="E686" s="8"/>
-      <c r="F686" s="8"/>
-      <c r="G686" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H686" s="8"/>
-      <c r="I686" s="8"/>
-      <c r="J686" s="8"/>
-      <c r="K686" s="8"/>
-    </row>
-    <row r="687" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A687" s="9">
-        <v>1673</v>
-      </c>
-      <c r="B687" s="10">
-        <v>329</v>
-      </c>
-      <c r="C687" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D687" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E687" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F687" s="9"/>
-      <c r="G687" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H687" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I687" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J687" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K687" s="9" t="s">
+      <c r="I687" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J687" s="6"/>
+      <c r="K687" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="688" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="6">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B688" s="11">
         <v>329</v>
@@ -20160,12 +20403,10 @@
       <c r="C688" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D688" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="D688" s="6"/>
       <c r="E688" s="6"/>
       <c r="F688" s="6" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G688" s="11" t="s">
         <v>18</v>
@@ -20177,133 +20418,117 @@
       </c>
       <c r="K688" s="6"/>
     </row>
-    <row r="689" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="6">
-        <v>1675</v>
-      </c>
-      <c r="B689" s="11">
+    <row r="689" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="8">
+        <v>1670</v>
+      </c>
+      <c r="B689" s="12">
         <v>329</v>
       </c>
-      <c r="C689" s="11" t="s">
+      <c r="C689" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D689" s="6" t="s">
+      <c r="D689" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E689" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F689" s="8"/>
+      <c r="G689" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H689" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I689" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J689" s="8"/>
+      <c r="K689" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A690" s="9">
+        <v>1671</v>
+      </c>
+      <c r="B690" s="10">
+        <v>16</v>
+      </c>
+      <c r="C690" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D690" s="9"/>
+      <c r="E690" s="9"/>
+      <c r="F690" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G690" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H690" s="9"/>
+      <c r="I690" s="9"/>
+      <c r="J690" s="9"/>
+      <c r="K690" s="9"/>
+    </row>
+    <row r="691" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="8">
+        <v>1672</v>
+      </c>
+      <c r="B691" s="12">
+        <v>16</v>
+      </c>
+      <c r="C691" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D691" s="8"/>
+      <c r="E691" s="8"/>
+      <c r="F691" s="8"/>
+      <c r="G691" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H691" s="8"/>
+      <c r="I691" s="8"/>
+      <c r="J691" s="8"/>
+      <c r="K691" s="8"/>
+    </row>
+    <row r="692" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A692" s="9">
+        <v>1673</v>
+      </c>
+      <c r="B692" s="10">
+        <v>329</v>
+      </c>
+      <c r="C692" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D692" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E689" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F689" s="6"/>
-      <c r="G689" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H689" s="6" t="s">
+      <c r="E692" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F692" s="9"/>
+      <c r="G692" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H692" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I689" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J689" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K689" s="6"/>
-    </row>
-    <row r="690" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="6">
-        <v>1676</v>
-      </c>
-      <c r="B690" s="11">
-        <v>329</v>
-      </c>
-      <c r="C690" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D690" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E690" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F690" s="6"/>
-      <c r="G690" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H690" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I690" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J690" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K690" s="6"/>
-    </row>
-    <row r="691" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="6">
-        <v>1677</v>
-      </c>
-      <c r="B691" s="11">
-        <v>329</v>
-      </c>
-      <c r="C691" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D691" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E691" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F691" s="6"/>
-      <c r="G691" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H691" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I691" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J691" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K691" s="6"/>
-    </row>
-    <row r="692" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="6">
-        <v>1678</v>
-      </c>
-      <c r="B692" s="11">
-        <v>329</v>
-      </c>
-      <c r="C692" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D692" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E692" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F692" s="6"/>
-      <c r="G692" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H692" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I692" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J692" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K692" s="6"/>
+      <c r="I692" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J692" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K692" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="693" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="6">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B693" s="11">
         <v>329</v>
@@ -20316,7 +20541,7 @@
       </c>
       <c r="E693" s="6"/>
       <c r="F693" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G693" s="11" t="s">
         <v>18</v>
@@ -20330,7 +20555,7 @@
     </row>
     <row r="694" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="6">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="B694" s="11">
         <v>329</v>
@@ -20342,28 +20567,26 @@
         <v>41</v>
       </c>
       <c r="E694" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F694" s="6"/>
       <c r="G694" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H694" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I694" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J694" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K694" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K694" s="6"/>
     </row>
     <row r="695" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="6">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="B695" s="11">
         <v>329</v>
@@ -20375,7 +20598,7 @@
         <v>41</v>
       </c>
       <c r="E695" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F695" s="6"/>
       <c r="G695" s="11" t="s">
@@ -20394,7 +20617,7 @@
     </row>
     <row r="696" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="6">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="B696" s="11">
         <v>329</v>
@@ -20406,14 +20629,14 @@
         <v>41</v>
       </c>
       <c r="E696" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F696" s="6"/>
       <c r="G696" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H696" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I696" s="6" t="s">
         <v>33</v>
@@ -20423,74 +20646,70 @@
       </c>
       <c r="K696" s="6"/>
     </row>
-    <row r="697" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="8">
-        <v>1683</v>
-      </c>
-      <c r="B697" s="12">
+    <row r="697" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A697" s="6">
+        <v>1678</v>
+      </c>
+      <c r="B697" s="11">
         <v>329</v>
       </c>
-      <c r="C697" s="12" t="s">
+      <c r="C697" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D697" s="8" t="s">
+      <c r="D697" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E697" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F697" s="8"/>
-      <c r="G697" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H697" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I697" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J697" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K697" s="8"/>
+      <c r="E697" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F697" s="6"/>
+      <c r="G697" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H697" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I697" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J697" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K697" s="6"/>
     </row>
     <row r="698" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A698" s="9">
-        <v>1684</v>
-      </c>
-      <c r="B698" s="10">
-        <v>16</v>
-      </c>
-      <c r="C698" s="10" t="s">
+      <c r="A698" s="6">
+        <v>1679</v>
+      </c>
+      <c r="B698" s="11">
+        <v>329</v>
+      </c>
+      <c r="C698" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D698" s="9" t="s">
+      <c r="D698" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E698" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F698" s="9"/>
-      <c r="G698" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H698" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I698" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J698" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K698" s="9"/>
+      <c r="E698" s="6"/>
+      <c r="F698" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G698" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H698" s="6"/>
+      <c r="I698" s="6"/>
+      <c r="J698" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K698" s="6"/>
     </row>
     <row r="699" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="6">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B699" s="11">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C699" s="11" t="s">
         <v>38</v>
@@ -20499,29 +20718,31 @@
         <v>41</v>
       </c>
       <c r="E699" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F699" s="6"/>
       <c r="G699" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H699" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I699" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J699" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K699" s="6"/>
+      <c r="J699" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K699" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="700" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="6">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="B700" s="11">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C700" s="11" t="s">
         <v>38</v>
@@ -20530,29 +20751,29 @@
         <v>41</v>
       </c>
       <c r="E700" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F700" s="6"/>
       <c r="G700" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H700" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I700" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J700" s="11" t="s">
+      <c r="J700" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K700" s="6"/>
     </row>
     <row r="701" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="6">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="B701" s="11">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="C701" s="11" t="s">
         <v>38</v>
@@ -20561,11 +20782,11 @@
         <v>41</v>
       </c>
       <c r="E701" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F701" s="6"/>
       <c r="G701" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H701" s="6" t="s">
         <v>45</v>
@@ -20573,220 +20794,254 @@
       <c r="I701" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J701" s="11" t="s">
+      <c r="J701" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K701" s="6"/>
     </row>
-    <row r="702" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A702" s="6">
-        <v>1688</v>
-      </c>
-      <c r="B702" s="11">
+    <row r="702" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="8">
+        <v>1683</v>
+      </c>
+      <c r="B702" s="12">
+        <v>329</v>
+      </c>
+      <c r="C702" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D702" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E702" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F702" s="8"/>
+      <c r="G702" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H702" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I702" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J702" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K702" s="8"/>
+    </row>
+    <row r="703" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="9">
+        <v>1684</v>
+      </c>
+      <c r="B703" s="10">
         <v>16</v>
       </c>
-      <c r="C702" s="11" t="s">
+      <c r="C703" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D702" s="6" t="s">
+      <c r="D703" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E702" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F702" s="6"/>
-      <c r="G702" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H702" s="6" t="s">
+      <c r="E703" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F703" s="9"/>
+      <c r="G703" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H703" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I703" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J703" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K703" s="9"/>
+    </row>
+    <row r="704" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="6">
+        <v>1685</v>
+      </c>
+      <c r="B704" s="11">
+        <v>16</v>
+      </c>
+      <c r="C704" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D704" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E704" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F704" s="6"/>
+      <c r="G704" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H704" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I702" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J702" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K702" s="6"/>
-    </row>
-    <row r="703" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="8">
-        <v>1689</v>
-      </c>
-      <c r="B703" s="12">
-        <v>16</v>
-      </c>
-      <c r="C703" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D703" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E703" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F703" s="8"/>
-      <c r="G703" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H703" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I703" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J703" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K703" s="8"/>
-    </row>
-    <row r="704" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A704" s="9">
-        <v>1690</v>
-      </c>
-      <c r="B704" s="10">
-        <v>329</v>
-      </c>
-      <c r="C704" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D704" s="10"/>
-      <c r="E704" s="9"/>
-      <c r="F704" s="9"/>
-      <c r="G704" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H704" s="9"/>
-      <c r="I704" s="9"/>
-      <c r="J704" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K704" s="9"/>
+      <c r="I704" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J704" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K704" s="6"/>
     </row>
     <row r="705" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="6">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="B705" s="11">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C705" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D705" s="6"/>
-      <c r="E705" s="6"/>
+      <c r="D705" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E705" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F705" s="6"/>
       <c r="G705" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H705" s="6"/>
-      <c r="I705" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H705" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I705" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J705" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K705" s="6"/>
     </row>
     <row r="706" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="6">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="B706" s="11">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C706" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D706" s="6"/>
-      <c r="E706" s="6"/>
+      <c r="D706" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E706" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F706" s="6"/>
       <c r="G706" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H706" s="6"/>
-      <c r="I706" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H706" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I706" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J706" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K706" s="6"/>
     </row>
     <row r="707" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="6">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="B707" s="11">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="C707" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D707" s="6"/>
-      <c r="E707" s="6"/>
+      <c r="D707" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E707" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F707" s="6"/>
       <c r="G707" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H707" s="6"/>
-      <c r="I707" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H707" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I707" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J707" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K707" s="6"/>
     </row>
-    <row r="708" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A708" s="6">
-        <v>1694</v>
-      </c>
-      <c r="B708" s="11">
+    <row r="708" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="8">
+        <v>1689</v>
+      </c>
+      <c r="B708" s="12">
+        <v>16</v>
+      </c>
+      <c r="C708" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D708" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E708" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F708" s="8"/>
+      <c r="G708" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H708" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I708" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J708" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K708" s="8"/>
+    </row>
+    <row r="709" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A709" s="9">
+        <v>1690</v>
+      </c>
+      <c r="B709" s="10">
         <v>329</v>
       </c>
-      <c r="C708" s="11" t="s">
+      <c r="C709" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D708" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E708" s="6"/>
-      <c r="F708" s="6"/>
-      <c r="G708" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H708" s="6"/>
-      <c r="I708" s="6"/>
-      <c r="J708" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K708" s="6"/>
-    </row>
-    <row r="709" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="6">
-        <v>1695</v>
-      </c>
-      <c r="B709" s="11">
-        <v>329</v>
-      </c>
-      <c r="C709" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D709" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E709" s="6"/>
-      <c r="F709" s="6"/>
-      <c r="G709" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H709" s="6"/>
-      <c r="I709" s="6"/>
-      <c r="J709" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K709" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D709" s="10"/>
+      <c r="E709" s="9"/>
+      <c r="F709" s="9"/>
+      <c r="G709" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H709" s="9"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K709" s="9"/>
     </row>
     <row r="710" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="6">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="B710" s="11">
         <v>329</v>
@@ -20796,22 +21051,20 @@
       </c>
       <c r="D710" s="6"/>
       <c r="E710" s="6"/>
-      <c r="F710" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F710" s="6"/>
       <c r="G710" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H710" s="6"/>
       <c r="I710" s="6"/>
       <c r="J710" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K710" s="6"/>
     </row>
     <row r="711" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="6">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="B711" s="11">
         <v>329</v>
@@ -20821,22 +21074,20 @@
       </c>
       <c r="D711" s="6"/>
       <c r="E711" s="6"/>
-      <c r="F711" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F711" s="6"/>
       <c r="G711" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H711" s="6"/>
       <c r="I711" s="6"/>
       <c r="J711" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K711" s="6"/>
     </row>
     <row r="712" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="6">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="B712" s="11">
         <v>329</v>
@@ -20844,9 +21095,7 @@
       <c r="C712" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D712" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
       <c r="G712" s="11" t="s">
@@ -20855,13 +21104,13 @@
       <c r="H712" s="6"/>
       <c r="I712" s="6"/>
       <c r="J712" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K712" s="6"/>
     </row>
     <row r="713" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="6">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="B713" s="11">
         <v>329</v>
@@ -20869,7 +21118,9 @@
       <c r="C713" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D713" s="6"/>
+      <c r="D713" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E713" s="6"/>
       <c r="F713" s="6"/>
       <c r="G713" s="11" t="s">
@@ -20878,13 +21129,13 @@
       <c r="H713" s="6"/>
       <c r="I713" s="6"/>
       <c r="J713" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K713" s="6"/>
     </row>
     <row r="714" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="6">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="B714" s="11">
         <v>329</v>
@@ -20892,11 +21143,11 @@
       <c r="C714" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D714" s="6"/>
+      <c r="D714" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E714" s="6"/>
-      <c r="F714" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F714" s="6"/>
       <c r="G714" s="11" t="s">
         <v>18</v>
       </c>
@@ -20905,11 +21156,13 @@
       <c r="J714" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K714" s="6"/>
+      <c r="K714" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="715" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="6">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="B715" s="11">
         <v>329</v>
@@ -20917,11 +21170,11 @@
       <c r="C715" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D715" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D715" s="6"/>
       <c r="E715" s="6"/>
-      <c r="F715" s="6"/>
+      <c r="F715" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G715" s="11" t="s">
         <v>18</v>
       </c>
@@ -20934,7 +21187,7 @@
     </row>
     <row r="716" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="6">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="B716" s="11">
         <v>329</v>
@@ -20944,20 +21197,22 @@
       </c>
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
-      <c r="F716" s="6"/>
+      <c r="F716" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G716" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H716" s="6"/>
       <c r="I716" s="6"/>
       <c r="J716" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K716" s="6"/>
     </row>
     <row r="717" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="6">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="B717" s="11">
         <v>329</v>
@@ -20965,22 +21220,26 @@
       <c r="C717" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D717" s="6"/>
+      <c r="D717" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E717" s="6"/>
-      <c r="F717" s="6"/>
+      <c r="F717" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G717" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H717" s="6"/>
       <c r="I717" s="6"/>
       <c r="J717" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K717" s="6"/>
     </row>
     <row r="718" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="6">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="B718" s="11">
         <v>329</v>
@@ -20990,7 +21249,6 @@
       </c>
       <c r="D718" s="6"/>
       <c r="E718" s="6"/>
-      <c r="F718" s="6"/>
       <c r="G718" s="11" t="s">
         <v>18</v>
       </c>
@@ -21003,7 +21261,7 @@
     </row>
     <row r="719" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="6">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="B719" s="11">
         <v>329</v>
@@ -21013,20 +21271,22 @@
       </c>
       <c r="D719" s="6"/>
       <c r="E719" s="6"/>
-      <c r="F719" s="6"/>
+      <c r="F719" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G719" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H719" s="6"/>
       <c r="I719" s="6"/>
       <c r="J719" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K719" s="6"/>
     </row>
     <row r="720" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="6">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="B720" s="11">
         <v>329</v>
@@ -21035,31 +21295,23 @@
         <v>38</v>
       </c>
       <c r="D720" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E720" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E720" s="6"/>
       <c r="F720" s="6"/>
       <c r="G720" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H720" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I720" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H720" s="6"/>
+      <c r="I720" s="6"/>
       <c r="J720" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K720" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K720" s="6"/>
     </row>
     <row r="721" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="6">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="B721" s="11">
         <v>329</v>
@@ -21075,14 +21327,14 @@
       </c>
       <c r="H721" s="6"/>
       <c r="I721" s="6"/>
-      <c r="J721" s="6" t="s">
+      <c r="J721" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K721" s="6"/>
     </row>
     <row r="722" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="6">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="B722" s="11">
         <v>329</v>
@@ -21090,32 +21342,22 @@
       <c r="C722" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D722" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E722" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D722" s="6"/>
+      <c r="E722" s="6"/>
       <c r="F722" s="6"/>
       <c r="G722" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H722" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I722" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J722" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K722" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H722" s="6"/>
+      <c r="I722" s="6"/>
+      <c r="J722" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K722" s="6"/>
     </row>
     <row r="723" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="6">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="B723" s="11">
         <v>329</v>
@@ -21123,26 +21365,22 @@
       <c r="C723" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D723" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D723" s="6"/>
       <c r="E723" s="6"/>
-      <c r="F723" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="F723" s="6"/>
       <c r="G723" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H723" s="6"/>
       <c r="I723" s="6"/>
-      <c r="J723" s="6" t="s">
-        <v>30</v>
+      <c r="J723" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K723" s="6"/>
     </row>
     <row r="724" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="6">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="B724" s="11">
         <v>329</v>
@@ -21150,9 +21388,7 @@
       <c r="C724" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D724" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D724" s="6"/>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
       <c r="G724" s="11" t="s">
@@ -21160,14 +21396,14 @@
       </c>
       <c r="H724" s="6"/>
       <c r="I724" s="6"/>
-      <c r="J724" s="6" t="s">
-        <v>30</v>
+      <c r="J724" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K724" s="6"/>
     </row>
     <row r="725" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="6">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="B725" s="11">
         <v>329</v>
@@ -21176,23 +21412,31 @@
         <v>38</v>
       </c>
       <c r="D725" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E725" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="E725" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F725" s="6"/>
       <c r="G725" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H725" s="6"/>
-      <c r="I725" s="6"/>
-      <c r="J725" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K725" s="6"/>
+      <c r="H725" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I725" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J725" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K725" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="726" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="6">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="B726" s="11">
         <v>329</v>
@@ -21200,9 +21444,7 @@
       <c r="C726" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D726" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D726" s="6"/>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
       <c r="G726" s="11" t="s">
@@ -21211,13 +21453,13 @@
       <c r="H726" s="6"/>
       <c r="I726" s="6"/>
       <c r="J726" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K726" s="6"/>
     </row>
     <row r="727" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="6">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="B727" s="11">
         <v>329</v>
@@ -21226,23 +21468,31 @@
         <v>38</v>
       </c>
       <c r="D727" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E727" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="E727" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F727" s="6"/>
       <c r="G727" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H727" s="6"/>
-      <c r="I727" s="6"/>
+      <c r="H727" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I727" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J727" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K727" s="6"/>
+      <c r="K727" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="728" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="6">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="B728" s="11">
         <v>329</v>
@@ -21251,10 +21501,12 @@
         <v>38</v>
       </c>
       <c r="D728" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E728" s="6"/>
-      <c r="F728" s="6"/>
+      <c r="F728" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G728" s="11" t="s">
         <v>18</v>
       </c>
@@ -21266,43 +21518,33 @@
       <c r="K728" s="6"/>
     </row>
     <row r="729" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A729" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B729" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C729" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D729" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E729" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F729" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G729" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H729" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I729" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J729" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K729" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A729" s="6">
+        <v>1710</v>
+      </c>
+      <c r="B729" s="11">
+        <v>329</v>
+      </c>
+      <c r="C729" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D729" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E729" s="6"/>
+      <c r="F729" s="6"/>
+      <c r="G729" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H729" s="6"/>
+      <c r="I729" s="6"/>
+      <c r="J729" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K729" s="6"/>
     </row>
     <row r="730" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="6">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="B730" s="11">
         <v>329</v>
@@ -21327,7 +21569,7 @@
     </row>
     <row r="731" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="6">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B731" s="11">
         <v>329</v>
@@ -21336,7 +21578,7 @@
         <v>38</v>
       </c>
       <c r="D731" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E731" s="6"/>
       <c r="F731" s="6"/>
@@ -21352,7 +21594,7 @@
     </row>
     <row r="732" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="6">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="B732" s="11">
         <v>329</v>
@@ -21360,7 +21602,9 @@
       <c r="C732" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D732" s="6"/>
+      <c r="D732" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
       <c r="G732" s="11" t="s">
@@ -21369,13 +21613,13 @@
       <c r="H732" s="6"/>
       <c r="I732" s="6"/>
       <c r="J732" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K732" s="6"/>
     </row>
     <row r="733" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="6">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="B733" s="11">
         <v>329</v>
@@ -21383,45 +21627,59 @@
       <c r="C733" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D733" s="6"/>
+      <c r="D733" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E733" s="6"/>
-      <c r="F733" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="F733" s="6"/>
       <c r="G733" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H733" s="6"/>
       <c r="I733" s="6"/>
-      <c r="J733" s="6"/>
+      <c r="J733" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K733" s="6"/>
     </row>
     <row r="734" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="6">
-        <v>1719</v>
-      </c>
-      <c r="B734" s="11">
-        <v>329</v>
-      </c>
-      <c r="C734" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D734" s="6"/>
-      <c r="E734" s="6"/>
-      <c r="F734" s="6"/>
-      <c r="G734" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H734" s="6"/>
-      <c r="I734" s="6"/>
-      <c r="J734" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K734" s="6"/>
+      <c r="A734" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D734" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E734" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F734" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G734" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H734" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I734" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J734" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K734" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="735" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="6">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="B735" s="11">
         <v>329</v>
@@ -21429,7 +21687,9 @@
       <c r="C735" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D735" s="6"/>
+      <c r="D735" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
       <c r="G735" s="11" t="s">
@@ -21438,13 +21698,13 @@
       <c r="H735" s="6"/>
       <c r="I735" s="6"/>
       <c r="J735" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K735" s="6"/>
     </row>
     <row r="736" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="6">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="B736" s="11">
         <v>329</v>
@@ -21452,22 +21712,32 @@
       <c r="C736" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D736" s="6"/>
-      <c r="E736" s="6"/>
+      <c r="D736" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E736" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F736" s="6"/>
       <c r="G736" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H736" s="6"/>
-      <c r="I736" s="6"/>
+      <c r="H736" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I736" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J736" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K736" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K736" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="737" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="6">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="B737" s="11">
         <v>329</v>
@@ -21488,197 +21758,180 @@
       </c>
       <c r="K737" s="6"/>
     </row>
-    <row r="738" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="8">
-        <v>1723</v>
-      </c>
-      <c r="B738" s="12">
+    <row r="738" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="6">
+        <v>1718</v>
+      </c>
+      <c r="B738" s="11">
         <v>329</v>
       </c>
-      <c r="C738" s="12" t="s">
+      <c r="C738" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D738" s="8"/>
-      <c r="E738" s="8"/>
-      <c r="F738" s="8"/>
-      <c r="G738" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H738" s="8"/>
-      <c r="I738" s="8"/>
-      <c r="J738" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K738" s="8"/>
+      <c r="D738" s="6"/>
+      <c r="E738" s="6"/>
+      <c r="F738" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G738" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H738" s="6"/>
+      <c r="I738" s="6"/>
+      <c r="J738" s="6"/>
+      <c r="K738" s="6"/>
     </row>
     <row r="739" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="9">
-        <v>1724</v>
-      </c>
-      <c r="B739" s="10">
-        <v>318</v>
-      </c>
-      <c r="C739" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D739" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E739" s="9"/>
-      <c r="F739" s="9"/>
-      <c r="G739" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H739" s="9"/>
-      <c r="I739" s="9"/>
-      <c r="J739" s="9"/>
-      <c r="K739" s="9"/>
+      <c r="A739" s="6">
+        <v>1719</v>
+      </c>
+      <c r="B739" s="11">
+        <v>329</v>
+      </c>
+      <c r="C739" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D739" s="6"/>
+      <c r="E739" s="6"/>
+      <c r="F739" s="6"/>
+      <c r="G739" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H739" s="6"/>
+      <c r="I739" s="6"/>
+      <c r="J739" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K739" s="6"/>
     </row>
     <row r="740" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="6">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="B740" s="11">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C740" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D740" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E740" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D740" s="6"/>
+      <c r="E740" s="6"/>
       <c r="F740" s="6"/>
       <c r="G740" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H740" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I740" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J740" s="6"/>
+      <c r="H740" s="6"/>
+      <c r="I740" s="6"/>
+      <c r="J740" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="K740" s="6"/>
     </row>
     <row r="741" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="6">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="B741" s="11">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C741" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D741" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E741" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D741" s="6"/>
+      <c r="E741" s="6"/>
       <c r="F741" s="6"/>
       <c r="G741" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H741" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I741" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J741" s="6"/>
-      <c r="K741" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H741" s="6"/>
+      <c r="I741" s="6"/>
+      <c r="J741" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K741" s="6"/>
     </row>
     <row r="742" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="6">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="B742" s="11">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C742" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D742" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E742" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D742" s="6"/>
+      <c r="E742" s="6"/>
       <c r="F742" s="6"/>
       <c r="G742" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H742" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I742" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J742" s="6"/>
-      <c r="K742" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="743" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="6">
-        <v>1728</v>
-      </c>
-      <c r="B743" s="11">
+      <c r="H742" s="6"/>
+      <c r="I742" s="6"/>
+      <c r="J742" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K742" s="6"/>
+    </row>
+    <row r="743" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="8">
+        <v>1723</v>
+      </c>
+      <c r="B743" s="12">
+        <v>329</v>
+      </c>
+      <c r="C743" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D743" s="8"/>
+      <c r="E743" s="8"/>
+      <c r="F743" s="8"/>
+      <c r="G743" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H743" s="8"/>
+      <c r="I743" s="8"/>
+      <c r="J743" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K743" s="8"/>
+    </row>
+    <row r="744" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="9">
+        <v>1724</v>
+      </c>
+      <c r="B744" s="10">
         <v>318</v>
       </c>
-      <c r="C743" s="11" t="s">
+      <c r="C744" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D743" s="6" t="s">
+      <c r="D744" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F743" s="6"/>
-      <c r="G743" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H743" s="6"/>
-      <c r="I743" s="6"/>
-      <c r="J743" s="6"/>
-      <c r="K743" s="6"/>
-    </row>
-    <row r="744" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="6">
-        <v>1729</v>
-      </c>
-      <c r="B744" s="11">
-        <v>318</v>
-      </c>
-      <c r="C744" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D744" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E744" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F744" s="6"/>
-      <c r="G744" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H744" s="6" t="s">
+      <c r="E744" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F744" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G744" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H744" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I744" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J744" s="6"/>
-      <c r="K744" s="6"/>
+      <c r="I744" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J744" s="9"/>
+      <c r="K744" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="745" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="6">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="B745" s="11">
         <v>318</v>
@@ -21689,19 +21942,25 @@
       <c r="D745" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E745" s="6"/>
+      <c r="E745" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F745" s="6"/>
       <c r="G745" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H745" s="6"/>
-      <c r="I745" s="6"/>
+      <c r="H745" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I745" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J745" s="6"/>
       <c r="K745" s="6"/>
     </row>
     <row r="746" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="6">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="B746" s="11">
         <v>318</v>
@@ -21712,19 +21971,27 @@
       <c r="D746" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E746" s="6"/>
+      <c r="E746" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F746" s="6"/>
       <c r="G746" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H746" s="6"/>
-      <c r="I746" s="6"/>
+      <c r="H746" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I746" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J746" s="6"/>
-      <c r="K746" s="6"/>
+      <c r="K746" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="747" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="6">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B747" s="11">
         <v>318</v>
@@ -21736,24 +22003,26 @@
         <v>36</v>
       </c>
       <c r="E747" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F747" s="6"/>
       <c r="G747" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H747" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I747" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J747" s="6"/>
-      <c r="K747" s="6"/>
+      <c r="K747" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="748" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="6">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="B748" s="11">
         <v>318</v>
@@ -21764,19 +22033,27 @@
       <c r="D748" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E748" s="6"/>
+      <c r="E748" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="F748" s="6"/>
       <c r="G748" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H748" s="6"/>
-      <c r="I748" s="6"/>
+      <c r="H748" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I748" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J748" s="6"/>
-      <c r="K748" s="6"/>
+      <c r="K748" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="749" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="6">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="B749" s="11">
         <v>318</v>
@@ -21805,7 +22082,7 @@
     </row>
     <row r="750" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="6">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="B750" s="11">
         <v>318</v>
@@ -21816,25 +22093,19 @@
       <c r="D750" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E750" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="E750" s="6"/>
       <c r="F750" s="6"/>
       <c r="G750" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H750" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I750" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H750" s="6"/>
+      <c r="I750" s="6"/>
       <c r="J750" s="6"/>
       <c r="K750" s="6"/>
     </row>
     <row r="751" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="6">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="B751" s="11">
         <v>318</v>
@@ -21845,25 +22116,19 @@
       <c r="D751" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E751" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="E751" s="6"/>
       <c r="F751" s="6"/>
       <c r="G751" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H751" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I751" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H751" s="6"/>
+      <c r="I751" s="6"/>
       <c r="J751" s="6"/>
       <c r="K751" s="6"/>
     </row>
     <row r="752" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="6">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="B752" s="11">
         <v>318</v>
@@ -21874,19 +22139,25 @@
       <c r="D752" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E752" s="6"/>
+      <c r="E752" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F752" s="6"/>
       <c r="G752" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H752" s="6"/>
-      <c r="I752" s="6"/>
+      <c r="H752" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I752" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J752" s="6"/>
       <c r="K752" s="6"/>
     </row>
-    <row r="753" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="6">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="B753" s="11">
         <v>318</v>
@@ -21897,19 +22168,27 @@
       <c r="D753" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E753" s="6"/>
+      <c r="E753" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="F753" s="6"/>
       <c r="G753" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H753" s="6"/>
-      <c r="I753" s="6"/>
+      <c r="H753" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I753" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J753" s="6"/>
-      <c r="K753" s="6"/>
-    </row>
-    <row r="754" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K753" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="6">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="B754" s="11">
         <v>318</v>
@@ -21920,19 +22199,25 @@
       <c r="D754" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E754" s="6"/>
+      <c r="E754" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F754" s="6"/>
       <c r="G754" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H754" s="6"/>
-      <c r="I754" s="6"/>
+      <c r="H754" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I754" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J754" s="6"/>
       <c r="K754" s="6"/>
     </row>
-    <row r="755" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="6">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="B755" s="11">
         <v>318</v>
@@ -21943,19 +22228,25 @@
       <c r="D755" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E755" s="6"/>
+      <c r="E755" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F755" s="6"/>
       <c r="G755" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H755" s="6"/>
-      <c r="I755" s="6"/>
+      <c r="H755" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I755" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J755" s="6"/>
       <c r="K755" s="6"/>
     </row>
-    <row r="756" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="6">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="B756" s="11">
         <v>318</v>
@@ -21966,19 +22257,25 @@
       <c r="D756" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E756" s="6"/>
+      <c r="E756" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F756" s="6"/>
       <c r="G756" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H756" s="6"/>
-      <c r="I756" s="6"/>
+      <c r="H756" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I756" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J756" s="6"/>
       <c r="K756" s="6"/>
     </row>
-    <row r="757" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="6">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="B757" s="11">
         <v>318</v>
@@ -21989,25 +22286,27 @@
       <c r="D757" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E757" s="6" t="s">
-        <v>66</v>
+      <c r="E757" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="F757" s="6"/>
       <c r="G757" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H757" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I757" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J757" s="6"/>
-      <c r="K757" s="6"/>
-    </row>
-    <row r="758" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K757" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="6">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="B758" s="11">
         <v>318</v>
@@ -22018,19 +22317,27 @@
       <c r="D758" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E758" s="6"/>
+      <c r="E758" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="F758" s="6"/>
       <c r="G758" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H758" s="6"/>
-      <c r="I758" s="6"/>
+      <c r="H758" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I758" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J758" s="6"/>
-      <c r="K758" s="6"/>
-    </row>
-    <row r="759" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K758" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="6">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="B759" s="11">
         <v>318</v>
@@ -22041,25 +22348,19 @@
       <c r="D759" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E759" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="E759" s="6"/>
       <c r="F759" s="6"/>
       <c r="G759" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H759" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I759" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H759" s="6"/>
+      <c r="I759" s="6"/>
       <c r="J759" s="6"/>
       <c r="K759" s="6"/>
     </row>
-    <row r="760" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="6">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="B760" s="11">
         <v>318</v>
@@ -22070,25 +22371,19 @@
       <c r="D760" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E760" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="E760" s="6"/>
       <c r="F760" s="6"/>
       <c r="G760" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H760" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I760" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H760" s="6"/>
+      <c r="I760" s="6"/>
       <c r="J760" s="6"/>
       <c r="K760" s="6"/>
     </row>
-    <row r="761" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="6">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="B761" s="11">
         <v>318</v>
@@ -22099,19 +22394,27 @@
       <c r="D761" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E761" s="6"/>
+      <c r="E761" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="F761" s="6"/>
       <c r="G761" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H761" s="6"/>
-      <c r="I761" s="6"/>
+      <c r="H761" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I761" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J761" s="6"/>
-      <c r="K761" s="6"/>
-    </row>
-    <row r="762" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K761" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="6">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="B762" s="11">
         <v>318</v>
@@ -22123,7 +22426,7 @@
         <v>36</v>
       </c>
       <c r="E762" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F762" s="6"/>
       <c r="G762" s="11" t="s">
@@ -22138,72 +22441,147 @@
       <c r="J762" s="6"/>
       <c r="K762" s="6"/>
     </row>
-    <row r="763" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="2"/>
-      <c r="B763" s="2"/>
-      <c r="C763" s="2"/>
-      <c r="D763" s="2"/>
-      <c r="E763" s="2"/>
-      <c r="F763" s="2"/>
-      <c r="G763" s="3"/>
-      <c r="H763" s="2"/>
-      <c r="I763" s="2"/>
-      <c r="J763" s="2"/>
-      <c r="K763" s="2"/>
-    </row>
-    <row r="764" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="2"/>
-      <c r="B764" s="2"/>
-      <c r="C764" s="2"/>
-      <c r="D764" s="2"/>
-      <c r="E764" s="2"/>
-      <c r="F764" s="2"/>
-      <c r="G764" s="3"/>
-      <c r="H764" s="2"/>
-      <c r="I764" s="2"/>
-      <c r="J764" s="2"/>
-      <c r="K764" s="2"/>
-    </row>
-    <row r="765" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A765" s="2"/>
-      <c r="B765" s="2"/>
-      <c r="C765" s="2"/>
-      <c r="D765" s="2"/>
-      <c r="E765" s="2"/>
-      <c r="F765" s="2"/>
-      <c r="G765" s="3"/>
-      <c r="H765" s="2"/>
-      <c r="I765" s="2"/>
-      <c r="J765" s="2"/>
-      <c r="K765" s="2"/>
-    </row>
-    <row r="766" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="2"/>
-      <c r="B766" s="2"/>
-      <c r="C766" s="2"/>
-      <c r="D766" s="2"/>
-      <c r="E766" s="2"/>
-      <c r="F766" s="2"/>
-      <c r="G766" s="3"/>
-      <c r="H766" s="2"/>
-      <c r="I766" s="2"/>
-      <c r="J766" s="2"/>
-      <c r="K766" s="2"/>
-    </row>
-    <row r="767" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A767" s="2"/>
-      <c r="B767" s="2"/>
-      <c r="C767" s="2"/>
-      <c r="D767" s="2"/>
-      <c r="E767" s="2"/>
-      <c r="F767" s="2"/>
-      <c r="G767" s="3"/>
-      <c r="H767" s="2"/>
-      <c r="I767" s="2"/>
-      <c r="J767" s="2"/>
-      <c r="K767" s="2"/>
-    </row>
-    <row r="768" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A763" s="6">
+        <v>1743</v>
+      </c>
+      <c r="B763" s="11">
+        <v>318</v>
+      </c>
+      <c r="C763" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D763" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E763" s="6"/>
+      <c r="F763" s="6"/>
+      <c r="G763" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H763" s="6"/>
+      <c r="I763" s="6"/>
+      <c r="J763" s="6"/>
+      <c r="K763" s="6"/>
+    </row>
+    <row r="764" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A764" s="6">
+        <v>1744</v>
+      </c>
+      <c r="B764" s="11">
+        <v>318</v>
+      </c>
+      <c r="C764" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D764" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E764" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F764" s="6"/>
+      <c r="G764" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H764" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I764" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J764" s="6"/>
+      <c r="K764" s="6"/>
+    </row>
+    <row r="765" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A765" s="6">
+        <v>1745</v>
+      </c>
+      <c r="B765" s="11">
+        <v>318</v>
+      </c>
+      <c r="C765" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D765" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E765" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F765" s="6"/>
+      <c r="G765" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H765" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I765" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J765" s="6"/>
+      <c r="K765" s="6"/>
+    </row>
+    <row r="766" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A766" s="6">
+        <v>1746</v>
+      </c>
+      <c r="B766" s="11">
+        <v>318</v>
+      </c>
+      <c r="C766" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D766" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E766" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G766" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H766" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I766" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J766" s="6"/>
+      <c r="K766" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A767" s="6">
+        <v>1747</v>
+      </c>
+      <c r="B767" s="11">
+        <v>318</v>
+      </c>
+      <c r="C767" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D767" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E767" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F767" s="6"/>
+      <c r="G767" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H767" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I767" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J767" s="6"/>
+      <c r="K767" s="6"/>
+    </row>
+    <row r="768" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -22215,7 +22593,6 @@
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
-      <c r="L768" s="1"/>
     </row>
     <row r="769" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
@@ -22229,7 +22606,6 @@
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
-      <c r="L769" s="1"/>
     </row>
     <row r="770" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
@@ -22243,7 +22619,6 @@
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
-      <c r="L770" s="1"/>
     </row>
     <row r="771" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
@@ -22257,7 +22632,6 @@
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
-      <c r="L771" s="1"/>
     </row>
     <row r="772" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
@@ -22271,7 +22645,6 @@
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
-      <c r="L772" s="1"/>
     </row>
     <row r="773" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
@@ -22308,7 +22681,7 @@
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
-      <c r="G775" s="2"/>
+      <c r="G775" s="3"/>
       <c r="H775" s="2"/>
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
@@ -22322,7 +22695,7 @@
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
-      <c r="G776" s="2"/>
+      <c r="G776" s="3"/>
       <c r="H776" s="2"/>
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
@@ -22336,7 +22709,7 @@
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
-      <c r="G777" s="2"/>
+      <c r="G777" s="3"/>
       <c r="H777" s="2"/>
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
@@ -22350,7 +22723,7 @@
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
-      <c r="G778" s="2"/>
+      <c r="G778" s="3"/>
       <c r="H778" s="2"/>
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
@@ -22364,7 +22737,7 @@
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
-      <c r="G779" s="2"/>
+      <c r="G779" s="3"/>
       <c r="H779" s="2"/>
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
@@ -22582,73 +22955,73 @@
       <c r="L794" s="1"/>
     </row>
     <row r="795" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A795" s="1"/>
-      <c r="B795" s="1"/>
-      <c r="C795" s="1"/>
-      <c r="D795" s="1"/>
-      <c r="E795" s="1"/>
-      <c r="F795" s="1"/>
-      <c r="G795" s="1"/>
-      <c r="H795" s="1"/>
-      <c r="I795" s="1"/>
-      <c r="J795" s="1"/>
-      <c r="K795" s="1"/>
+      <c r="A795" s="2"/>
+      <c r="B795" s="2"/>
+      <c r="C795" s="2"/>
+      <c r="D795" s="2"/>
+      <c r="E795" s="2"/>
+      <c r="F795" s="2"/>
+      <c r="G795" s="2"/>
+      <c r="H795" s="2"/>
+      <c r="I795" s="2"/>
+      <c r="J795" s="2"/>
+      <c r="K795" s="2"/>
       <c r="L795" s="1"/>
     </row>
     <row r="796" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="1"/>
-      <c r="B796" s="1"/>
-      <c r="C796" s="1"/>
-      <c r="D796" s="1"/>
-      <c r="E796" s="1"/>
-      <c r="F796" s="1"/>
-      <c r="G796" s="1"/>
-      <c r="H796" s="1"/>
-      <c r="I796" s="1"/>
-      <c r="J796" s="1"/>
-      <c r="K796" s="1"/>
+      <c r="A796" s="2"/>
+      <c r="B796" s="2"/>
+      <c r="C796" s="2"/>
+      <c r="D796" s="2"/>
+      <c r="E796" s="2"/>
+      <c r="F796" s="2"/>
+      <c r="G796" s="2"/>
+      <c r="H796" s="2"/>
+      <c r="I796" s="2"/>
+      <c r="J796" s="2"/>
+      <c r="K796" s="2"/>
       <c r="L796" s="1"/>
     </row>
     <row r="797" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A797" s="1"/>
-      <c r="B797" s="1"/>
-      <c r="C797" s="1"/>
-      <c r="D797" s="1"/>
-      <c r="E797" s="1"/>
-      <c r="F797" s="1"/>
-      <c r="G797" s="1"/>
-      <c r="H797" s="1"/>
-      <c r="I797" s="1"/>
-      <c r="J797" s="1"/>
-      <c r="K797" s="1"/>
+      <c r="A797" s="2"/>
+      <c r="B797" s="2"/>
+      <c r="C797" s="2"/>
+      <c r="D797" s="2"/>
+      <c r="E797" s="2"/>
+      <c r="F797" s="2"/>
+      <c r="G797" s="2"/>
+      <c r="H797" s="2"/>
+      <c r="I797" s="2"/>
+      <c r="J797" s="2"/>
+      <c r="K797" s="2"/>
       <c r="L797" s="1"/>
     </row>
     <row r="798" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A798" s="1"/>
-      <c r="B798" s="1"/>
-      <c r="C798" s="1"/>
-      <c r="D798" s="1"/>
-      <c r="E798" s="1"/>
-      <c r="F798" s="1"/>
-      <c r="G798" s="1"/>
-      <c r="H798" s="1"/>
-      <c r="I798" s="1"/>
-      <c r="J798" s="1"/>
-      <c r="K798" s="1"/>
+      <c r="A798" s="2"/>
+      <c r="B798" s="2"/>
+      <c r="C798" s="2"/>
+      <c r="D798" s="2"/>
+      <c r="E798" s="2"/>
+      <c r="F798" s="2"/>
+      <c r="G798" s="2"/>
+      <c r="H798" s="2"/>
+      <c r="I798" s="2"/>
+      <c r="J798" s="2"/>
+      <c r="K798" s="2"/>
       <c r="L798" s="1"/>
     </row>
     <row r="799" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A799" s="1"/>
-      <c r="B799" s="1"/>
-      <c r="C799" s="1"/>
-      <c r="D799" s="1"/>
-      <c r="E799" s="1"/>
-      <c r="F799" s="1"/>
-      <c r="G799" s="1"/>
-      <c r="H799" s="1"/>
-      <c r="I799" s="1"/>
-      <c r="J799" s="1"/>
-      <c r="K799" s="1"/>
+      <c r="A799" s="2"/>
+      <c r="B799" s="2"/>
+      <c r="C799" s="2"/>
+      <c r="D799" s="2"/>
+      <c r="E799" s="2"/>
+      <c r="F799" s="2"/>
+      <c r="G799" s="2"/>
+      <c r="H799" s="2"/>
+      <c r="I799" s="2"/>
+      <c r="J799" s="2"/>
+      <c r="K799" s="2"/>
       <c r="L799" s="1"/>
     </row>
     <row r="800" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -29259,6 +29632,76 @@
       <c r="K1271" s="1"/>
       <c r="L1271" s="1"/>
     </row>
+    <row r="1272" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1272" s="1"/>
+      <c r="B1272" s="1"/>
+      <c r="C1272" s="1"/>
+      <c r="D1272" s="1"/>
+      <c r="E1272" s="1"/>
+      <c r="F1272" s="1"/>
+      <c r="G1272" s="1"/>
+      <c r="H1272" s="1"/>
+      <c r="I1272" s="1"/>
+      <c r="J1272" s="1"/>
+      <c r="K1272" s="1"/>
+      <c r="L1272" s="1"/>
+    </row>
+    <row r="1273" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1273" s="1"/>
+      <c r="B1273" s="1"/>
+      <c r="C1273" s="1"/>
+      <c r="D1273" s="1"/>
+      <c r="E1273" s="1"/>
+      <c r="F1273" s="1"/>
+      <c r="G1273" s="1"/>
+      <c r="H1273" s="1"/>
+      <c r="I1273" s="1"/>
+      <c r="J1273" s="1"/>
+      <c r="K1273" s="1"/>
+      <c r="L1273" s="1"/>
+    </row>
+    <row r="1274" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1274" s="1"/>
+      <c r="B1274" s="1"/>
+      <c r="C1274" s="1"/>
+      <c r="D1274" s="1"/>
+      <c r="E1274" s="1"/>
+      <c r="F1274" s="1"/>
+      <c r="G1274" s="1"/>
+      <c r="H1274" s="1"/>
+      <c r="I1274" s="1"/>
+      <c r="J1274" s="1"/>
+      <c r="K1274" s="1"/>
+      <c r="L1274" s="1"/>
+    </row>
+    <row r="1275" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1275" s="1"/>
+      <c r="B1275" s="1"/>
+      <c r="C1275" s="1"/>
+      <c r="D1275" s="1"/>
+      <c r="E1275" s="1"/>
+      <c r="F1275" s="1"/>
+      <c r="G1275" s="1"/>
+      <c r="H1275" s="1"/>
+      <c r="I1275" s="1"/>
+      <c r="J1275" s="1"/>
+      <c r="K1275" s="1"/>
+      <c r="L1275" s="1"/>
+    </row>
+    <row r="1276" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1276" s="1"/>
+      <c r="B1276" s="1"/>
+      <c r="C1276" s="1"/>
+      <c r="D1276" s="1"/>
+      <c r="E1276" s="1"/>
+      <c r="F1276" s="1"/>
+      <c r="G1276" s="1"/>
+      <c r="H1276" s="1"/>
+      <c r="I1276" s="1"/>
+      <c r="J1276" s="1"/>
+      <c r="K1276" s="1"/>
+      <c r="L1276" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/egg_tube_data.xlsx
+++ b/data/egg_tube_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FDC85-7293-AD45-970C-B5948DE49C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF41E78-75DB-1D41-BA73-6432DFA5AD8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4446" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="75">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>10.16-10.18</t>
+  </si>
+  <si>
+    <t>10.19.21</t>
   </si>
 </sst>
 </file>
@@ -700,8 +703,8 @@
   <dimension ref="A1:L1276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G768" sqref="G768"/>
+      <pane ySplit="1" topLeftCell="A684" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H692" sqref="H692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20483,13 +20486,19 @@
         <v>38</v>
       </c>
       <c r="D691" s="8"/>
-      <c r="E691" s="8"/>
+      <c r="E691" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="F691" s="8"/>
       <c r="G691" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H691" s="8"/>
-      <c r="I691" s="8"/>
+      <c r="H691" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I691" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J691" s="8"/>
       <c r="K691" s="8"/>
     </row>
@@ -21121,13 +21130,19 @@
       <c r="D713" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E713" s="6"/>
+      <c r="E713" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F713" s="6"/>
       <c r="G713" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H713" s="6"/>
-      <c r="I713" s="6"/>
+      <c r="H713" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I713" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J713" s="11" t="s">
         <v>30</v>
       </c>
@@ -22348,13 +22363,19 @@
       <c r="D759" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E759" s="6"/>
+      <c r="E759" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F759" s="6"/>
       <c r="G759" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H759" s="6"/>
-      <c r="I759" s="6"/>
+      <c r="H759" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I759" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J759" s="6"/>
       <c r="K759" s="6"/>
     </row>
@@ -22454,13 +22475,19 @@
       <c r="D763" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E763" s="6"/>
+      <c r="E763" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F763" s="6"/>
       <c r="G763" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H763" s="6"/>
-      <c r="I763" s="6"/>
+      <c r="H763" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I763" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J763" s="6"/>
       <c r="K763" s="6"/>
     </row>

--- a/data/egg_tube_data.xlsx
+++ b/data/egg_tube_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF41E78-75DB-1D41-BA73-6432DFA5AD8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7AC66-A315-D141-ACC0-20D2D181A301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="80">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>10.19.21</t>
+  </si>
+  <si>
+    <t>10.20.21</t>
+  </si>
+  <si>
+    <t>10.25.21</t>
+  </si>
+  <si>
+    <t>10.23-10.25</t>
+  </si>
+  <si>
+    <t>10.22.21</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
@@ -703,8 +718,8 @@
   <dimension ref="A1:L1276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A684" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H692" sqref="H692"/>
+      <pane ySplit="1" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K750" sqref="K750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21312,13 +21327,19 @@
       <c r="D720" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E720" s="6"/>
+      <c r="E720" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F720" s="6"/>
       <c r="G720" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H720" s="6"/>
-      <c r="I720" s="6"/>
+      <c r="H720" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I720" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J720" s="11" t="s">
         <v>30</v>
       </c>
@@ -22108,13 +22129,19 @@
       <c r="D750" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E750" s="6"/>
+      <c r="E750" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F750" s="6"/>
       <c r="G750" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H750" s="6"/>
-      <c r="I750" s="6"/>
+      <c r="H750" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I750" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J750" s="6"/>
       <c r="K750" s="6"/>
     </row>
@@ -22131,15 +22158,23 @@
       <c r="D751" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E751" s="6"/>
+      <c r="E751" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F751" s="6"/>
       <c r="G751" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H751" s="6"/>
-      <c r="I751" s="6"/>
+      <c r="H751" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I751" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J751" s="6"/>
-      <c r="K751" s="6"/>
+      <c r="K751" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="752" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="6">
@@ -22392,7 +22427,9 @@
       <c r="D760" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E760" s="6"/>
+      <c r="E760" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="F760" s="6"/>
       <c r="G760" s="11" t="s">
         <v>18</v>

--- a/data/egg_tube_data.xlsx
+++ b/data/egg_tube_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA7AC66-A315-D141-ACC0-20D2D181A301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B334E-7510-EB43-9717-0E49C93DBB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
+    <workbookView xWindow="3340" yWindow="500" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
   <sheets>
     <sheet name="egg_tube_data3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="80">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -715,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360198D1-0CD9-2542-AA08-B793A290F6A1}">
-  <dimension ref="A1:L1276"/>
+  <dimension ref="A1:L1277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K750" sqref="K750"/>
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F577" sqref="F577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9180,7 +9180,7 @@
         <v>45</v>
       </c>
       <c r="I295" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J295" s="6" t="s">
         <v>30</v>
@@ -17214,9 +17214,7 @@
       <c r="E577" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F577" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F577" s="6"/>
       <c r="G577" s="11" t="s">
         <v>17</v>
       </c>
@@ -17232,70 +17230,70 @@
       <c r="K577" s="6"/>
     </row>
     <row r="578" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="5" t="s">
+      <c r="A578" s="6">
+        <v>1561.5</v>
+      </c>
+      <c r="B578" s="11">
+        <v>16</v>
+      </c>
+      <c r="C578" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D578" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E578" s="6"/>
+      <c r="F578" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G578" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H578" s="6"/>
+      <c r="I578" s="6"/>
+      <c r="J578" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K578" s="6"/>
+    </row>
+    <row r="579" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B578" s="5" t="s">
+      <c r="B579" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C578" s="5" t="s">
+      <c r="C579" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D578" s="5" t="s">
+      <c r="D579" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E578" s="5" t="s">
+      <c r="E579" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F578" s="5" t="s">
+      <c r="F579" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G578" s="5" t="s">
+      <c r="G579" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H578" s="5" t="s">
+      <c r="H579" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I578" s="5" t="s">
+      <c r="I579" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J578" s="5" t="s">
+      <c r="J579" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K578" s="5" t="s">
+      <c r="K579" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="579" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="6">
-        <v>1562</v>
-      </c>
-      <c r="B579" s="11">
-        <v>16</v>
-      </c>
-      <c r="C579" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D579" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E579" s="6"/>
-      <c r="F579" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G579" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H579" s="6"/>
-      <c r="I579" s="6"/>
-      <c r="J579" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K579" s="6"/>
     </row>
     <row r="580" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B580" s="11">
         <v>16</v>
@@ -17306,29 +17304,23 @@
       <c r="D580" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E580" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F580" s="6"/>
+      <c r="E580" s="6"/>
+      <c r="F580" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G580" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H580" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I580" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H580" s="6"/>
+      <c r="I580" s="6"/>
       <c r="J580" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K580" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K580" s="6"/>
     </row>
     <row r="581" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B581" s="11">
         <v>16</v>
@@ -17347,7 +17339,7 @@
         <v>17</v>
       </c>
       <c r="H581" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I581" s="6" t="s">
         <v>33</v>
@@ -17361,7 +17353,7 @@
     </row>
     <row r="582" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B582" s="11">
         <v>16</v>
@@ -17373,14 +17365,14 @@
         <v>26</v>
       </c>
       <c r="E582" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F582" s="6"/>
       <c r="G582" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H582" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I582" s="6" t="s">
         <v>33</v>
@@ -17388,11 +17380,13 @@
       <c r="J582" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K582" s="6"/>
+      <c r="K582" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="583" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B583" s="11">
         <v>16</v>
@@ -17404,7 +17398,7 @@
         <v>26</v>
       </c>
       <c r="E583" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F583" s="6"/>
       <c r="G583" s="11" t="s">
@@ -17414,7 +17408,7 @@
         <v>45</v>
       </c>
       <c r="I583" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J583" s="11" t="s">
         <v>30</v>
@@ -17423,7 +17417,7 @@
     </row>
     <row r="584" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B584" s="11">
         <v>16</v>
@@ -17435,30 +17429,26 @@
         <v>26</v>
       </c>
       <c r="E584" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F584" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F584" s="6"/>
       <c r="G584" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H584" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I584" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J584" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K584" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K584" s="6"/>
     </row>
     <row r="585" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B585" s="11">
         <v>16</v>
@@ -17469,108 +17459,116 @@
       <c r="D585" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E585" s="6"/>
+      <c r="E585" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F585" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G585" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H585" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I585" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J585" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K585" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="6">
+        <v>1568</v>
+      </c>
+      <c r="B586" s="11">
+        <v>16</v>
+      </c>
+      <c r="C586" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E586" s="6"/>
+      <c r="F586" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G585" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H585" s="6"/>
-      <c r="I585" s="6"/>
-      <c r="J585" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K585" s="6"/>
-    </row>
-    <row r="586" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="8">
+      <c r="G586" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H586" s="6"/>
+      <c r="I586" s="6"/>
+      <c r="J586" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K586" s="6"/>
+    </row>
+    <row r="587" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="8">
         <v>1569</v>
       </c>
-      <c r="B586" s="12">
+      <c r="B587" s="12">
         <v>16</v>
       </c>
-      <c r="C586" s="12" t="s">
+      <c r="C587" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D586" s="8" t="s">
+      <c r="D587" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E586" s="8"/>
-      <c r="F586" s="8" t="s">
+      <c r="E587" s="8"/>
+      <c r="F587" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G586" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H586" s="8"/>
-      <c r="I586" s="8"/>
-      <c r="J586" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K586" s="8"/>
-    </row>
-    <row r="587" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="9">
+      <c r="G587" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" s="8"/>
+      <c r="I587" s="8"/>
+      <c r="J587" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K587" s="8"/>
+    </row>
+    <row r="588" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="9">
         <v>1570</v>
       </c>
-      <c r="B587" s="10">
+      <c r="B588" s="10">
         <v>114</v>
       </c>
-      <c r="C587" s="10" t="s">
+      <c r="C588" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D587" s="10" t="s">
+      <c r="D588" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E587" s="9" t="s">
+      <c r="E588" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F587" s="9"/>
-      <c r="G587" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H587" s="9" t="s">
+      <c r="F588" s="9"/>
+      <c r="G588" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H588" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I587" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J587" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K587" s="9"/>
-    </row>
-    <row r="588" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="6">
-        <v>1571</v>
-      </c>
-      <c r="B588" s="11">
-        <v>114</v>
-      </c>
-      <c r="C588" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D588" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E588" s="6"/>
-      <c r="F588" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G588" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H588" s="6"/>
-      <c r="I588" s="6"/>
-      <c r="J588" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K588" s="6"/>
+      <c r="I588" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J588" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K588" s="9"/>
     </row>
     <row r="589" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B589" s="11">
         <v>114</v>
@@ -17578,22 +17576,26 @@
       <c r="C589" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D589" s="6"/>
+      <c r="D589" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="E589" s="6"/>
-      <c r="F589" s="6"/>
+      <c r="F589" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G589" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H589" s="6"/>
       <c r="I589" s="6"/>
       <c r="J589" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K589" s="6"/>
     </row>
     <row r="590" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B590" s="11">
         <v>114</v>
@@ -17616,7 +17618,7 @@
     </row>
     <row r="591" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B591" s="11">
         <v>114</v>
@@ -17639,7 +17641,7 @@
     </row>
     <row r="592" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B592" s="11">
         <v>114</v>
@@ -17662,7 +17664,7 @@
     </row>
     <row r="593" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B593" s="11">
         <v>114</v>
@@ -17678,14 +17680,14 @@
       </c>
       <c r="H593" s="6"/>
       <c r="I593" s="6"/>
-      <c r="J593" s="6" t="s">
+      <c r="J593" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K593" s="6"/>
     </row>
     <row r="594" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B594" s="11">
         <v>114</v>
@@ -17708,7 +17710,7 @@
     </row>
     <row r="595" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B595" s="11">
         <v>114</v>
@@ -17731,7 +17733,7 @@
     </row>
     <row r="596" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B596" s="11">
         <v>114</v>
@@ -17754,7 +17756,7 @@
     </row>
     <row r="597" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B597" s="11">
         <v>114</v>
@@ -17777,7 +17779,7 @@
     </row>
     <row r="598" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B598" s="11">
         <v>114</v>
@@ -17800,7 +17802,7 @@
     </row>
     <row r="599" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B599" s="11">
         <v>114</v>
@@ -17821,94 +17823,86 @@
       </c>
       <c r="K599" s="6"/>
     </row>
-    <row r="600" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="8">
+    <row r="600" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="6">
+        <v>1582</v>
+      </c>
+      <c r="B600" s="11">
+        <v>114</v>
+      </c>
+      <c r="C600" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D600" s="6"/>
+      <c r="E600" s="6"/>
+      <c r="F600" s="6"/>
+      <c r="G600" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H600" s="6"/>
+      <c r="I600" s="6"/>
+      <c r="J600" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K600" s="6"/>
+    </row>
+    <row r="601" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="8">
         <v>1583</v>
       </c>
-      <c r="B600" s="12">
+      <c r="B601" s="12">
         <v>114</v>
       </c>
-      <c r="C600" s="12" t="s">
+      <c r="C601" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D600" s="8"/>
-      <c r="E600" s="8"/>
-      <c r="F600" s="8"/>
-      <c r="G600" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H600" s="8"/>
-      <c r="I600" s="8"/>
-      <c r="J600" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K600" s="8"/>
-    </row>
-    <row r="601" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="9">
+      <c r="D601" s="8"/>
+      <c r="E601" s="8"/>
+      <c r="F601" s="8"/>
+      <c r="G601" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H601" s="8"/>
+      <c r="I601" s="8"/>
+      <c r="J601" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K601" s="8"/>
+    </row>
+    <row r="602" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="9">
         <v>1584</v>
       </c>
-      <c r="B601" s="10">
+      <c r="B602" s="10">
         <v>329</v>
       </c>
-      <c r="C601" s="10" t="s">
+      <c r="C602" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D601" s="9" t="s">
+      <c r="D602" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E601" s="9" t="s">
+      <c r="E602" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F601" s="9"/>
-      <c r="G601" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H601" s="9" t="s">
+      <c r="F602" s="9"/>
+      <c r="G602" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H602" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I601" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J601" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K601" s="9"/>
-    </row>
-    <row r="602" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="6">
-        <v>1585</v>
-      </c>
-      <c r="B602" s="11">
-        <v>329</v>
-      </c>
-      <c r="C602" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D602" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E602" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F602" s="6"/>
-      <c r="G602" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H602" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I602" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J602" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K602" s="6"/>
+      <c r="I602" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J602" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K602" s="9"/>
     </row>
     <row r="603" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B603" s="11">
         <v>329</v>
@@ -17920,7 +17914,7 @@
         <v>38</v>
       </c>
       <c r="E603" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F603" s="6"/>
       <c r="G603" s="11" t="s">
@@ -17939,7 +17933,7 @@
     </row>
     <row r="604" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B604" s="11">
         <v>329</v>
@@ -17951,14 +17945,14 @@
         <v>38</v>
       </c>
       <c r="E604" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F604" s="6"/>
       <c r="G604" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H604" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I604" s="6" t="s">
         <v>33</v>
@@ -17970,7 +17964,7 @@
     </row>
     <row r="605" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B605" s="11">
         <v>329</v>
@@ -17982,7 +17976,7 @@
         <v>38</v>
       </c>
       <c r="E605" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F605" s="6"/>
       <c r="G605" s="11" t="s">
@@ -17992,7 +17986,7 @@
         <v>45</v>
       </c>
       <c r="I605" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J605" s="11" t="s">
         <v>30</v>
@@ -18001,7 +17995,7 @@
     </row>
     <row r="606" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B606" s="11">
         <v>329</v>
@@ -18013,28 +18007,26 @@
         <v>38</v>
       </c>
       <c r="E606" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F606" s="6"/>
       <c r="G606" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H606" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I606" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J606" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K606" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K606" s="6"/>
     </row>
     <row r="607" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B607" s="11">
         <v>329</v>
@@ -18046,26 +18038,28 @@
         <v>38</v>
       </c>
       <c r="E607" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F607" s="6"/>
       <c r="G607" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H607" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I607" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J607" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K607" s="6"/>
+      <c r="K607" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="608" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B608" s="11">
         <v>329</v>
@@ -18077,7 +18071,7 @@
         <v>38</v>
       </c>
       <c r="E608" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F608" s="6"/>
       <c r="G608" s="11" t="s">
@@ -18087,18 +18081,16 @@
         <v>45</v>
       </c>
       <c r="I608" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J608" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K608" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K608" s="6"/>
     </row>
     <row r="609" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B609" s="11">
         <v>329</v>
@@ -18109,23 +18101,29 @@
       <c r="D609" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E609" s="6"/>
-      <c r="F609" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="E609" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F609" s="6"/>
       <c r="G609" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H609" s="6"/>
-      <c r="I609" s="6"/>
+      <c r="H609" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I609" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J609" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K609" s="6"/>
+      <c r="K609" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="610" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B610" s="11">
         <v>329</v>
@@ -18138,7 +18136,7 @@
       </c>
       <c r="E610" s="6"/>
       <c r="F610" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G610" s="11" t="s">
         <v>18</v>
@@ -18152,7 +18150,7 @@
     </row>
     <row r="611" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B611" s="11">
         <v>329</v>
@@ -18163,29 +18161,23 @@
       <c r="D611" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E611" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F611" s="6"/>
+      <c r="E611" s="6"/>
+      <c r="F611" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G611" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H611" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I611" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H611" s="6"/>
+      <c r="I611" s="6"/>
       <c r="J611" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K611" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K611" s="6"/>
     </row>
     <row r="612" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B612" s="11">
         <v>329</v>
@@ -18197,28 +18189,28 @@
         <v>38</v>
       </c>
       <c r="E612" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F612" s="6"/>
       <c r="G612" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H612" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I612" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J612" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K612" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="613" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B613" s="11">
         <v>329</v>
@@ -18229,27 +18221,29 @@
       <c r="D613" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E613" t="s">
-        <v>58</v>
+      <c r="E613" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F613" s="6"/>
       <c r="G613" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H613" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I613" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J613" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K613" s="2"/>
+      <c r="K613" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="614" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B614" s="11">
         <v>329</v>
@@ -18260,23 +18254,27 @@
       <c r="D614" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E614" s="6"/>
-      <c r="F614" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="E614" t="s">
+        <v>58</v>
+      </c>
+      <c r="F614" s="6"/>
       <c r="G614" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H614" s="6"/>
-      <c r="I614" s="6"/>
+      <c r="H614" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I614" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J614" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K614" s="6"/>
+      <c r="K614" s="2"/>
     </row>
     <row r="615" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B615" s="11">
         <v>329</v>
@@ -18287,29 +18285,23 @@
       <c r="D615" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E615" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F615" s="6"/>
+      <c r="E615" s="6"/>
+      <c r="F615" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G615" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H615" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I615" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H615" s="6"/>
+      <c r="I615" s="6"/>
       <c r="J615" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K615" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K615" s="6"/>
     </row>
     <row r="616" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B616" s="11">
         <v>329</v>
@@ -18331,7 +18323,7 @@
         <v>44</v>
       </c>
       <c r="I616" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J616" s="11" t="s">
         <v>30</v>
@@ -18342,7 +18334,7 @@
     </row>
     <row r="617" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B617" s="11">
         <v>329</v>
@@ -18361,7 +18353,7 @@
         <v>18</v>
       </c>
       <c r="H617" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I617" s="6" t="s">
         <v>30</v>
@@ -18375,7 +18367,7 @@
     </row>
     <row r="618" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B618" s="11">
         <v>329</v>
@@ -18387,7 +18379,7 @@
         <v>38</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F618" s="6"/>
       <c r="G618" s="11" t="s">
@@ -18402,11 +18394,13 @@
       <c r="J618" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K618" s="6"/>
+      <c r="K618" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="619" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B619" s="11">
         <v>329</v>
@@ -18417,15 +18411,19 @@
       <c r="D619" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E619" s="6"/>
-      <c r="F619" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="E619" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F619" s="6"/>
       <c r="G619" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H619" s="6"/>
-      <c r="I619" s="6"/>
+      <c r="H619" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I619" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J619" s="11" t="s">
         <v>30</v>
       </c>
@@ -18433,7 +18431,7 @@
     </row>
     <row r="620" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B620" s="11">
         <v>329</v>
@@ -18444,19 +18442,15 @@
       <c r="D620" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E620" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F620" s="6"/>
+      <c r="E620" s="6"/>
+      <c r="F620" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G620" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H620" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I620" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H620" s="6"/>
+      <c r="I620" s="6"/>
       <c r="J620" s="11" t="s">
         <v>30</v>
       </c>
@@ -18464,7 +18458,7 @@
     </row>
     <row r="621" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B621" s="11">
         <v>329</v>
@@ -18473,10 +18467,10 @@
         <v>38</v>
       </c>
       <c r="D621" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F621" s="6"/>
       <c r="G621" s="11" t="s">
@@ -18495,7 +18489,7 @@
     </row>
     <row r="622" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B622" s="11">
         <v>329</v>
@@ -18507,7 +18501,7 @@
         <v>40</v>
       </c>
       <c r="E622" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F622" s="6"/>
       <c r="G622" s="11" t="s">
@@ -18526,7 +18520,7 @@
     </row>
     <row r="623" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B623" s="11">
         <v>329</v>
@@ -18535,10 +18529,10 @@
         <v>38</v>
       </c>
       <c r="D623" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E623" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F623" s="6"/>
       <c r="G623" s="11" t="s">
@@ -18553,13 +18547,11 @@
       <c r="J623" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K623" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K623" s="6"/>
     </row>
     <row r="624" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B624" s="11">
         <v>329</v>
@@ -18568,7 +18560,7 @@
         <v>38</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E624" s="6" t="s">
         <v>66</v>
@@ -18578,7 +18570,7 @@
         <v>18</v>
       </c>
       <c r="H624" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I624" s="6" t="s">
         <v>33</v>
@@ -18592,7 +18584,7 @@
     </row>
     <row r="625" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B625" s="11">
         <v>329</v>
@@ -18603,23 +18595,29 @@
       <c r="D625" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E625" s="6"/>
-      <c r="F625" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="E625" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F625" s="6"/>
       <c r="G625" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H625" s="6"/>
-      <c r="I625" s="6"/>
+      <c r="H625" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I625" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J625" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K625" s="6"/>
+      <c r="K625" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="626" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B626" s="11">
         <v>329</v>
@@ -18630,19 +18628,15 @@
       <c r="D626" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E626" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F626" s="6"/>
+      <c r="E626" s="6"/>
+      <c r="F626" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G626" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H626" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I626" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H626" s="6"/>
+      <c r="I626" s="6"/>
       <c r="J626" s="11" t="s">
         <v>30</v>
       </c>
@@ -18650,7 +18644,7 @@
     </row>
     <row r="627" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B627" s="11">
         <v>329</v>
@@ -18658,22 +18652,30 @@
       <c r="C627" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D627" s="6"/>
-      <c r="E627" s="6"/>
+      <c r="D627" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E627" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F627" s="6"/>
       <c r="G627" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H627" s="6"/>
-      <c r="I627" s="6"/>
-      <c r="J627" s="6" t="s">
-        <v>33</v>
+      <c r="H627" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I627" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J627" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="K627" s="6"/>
     </row>
     <row r="628" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B628" s="11">
         <v>329</v>
@@ -18681,32 +18683,22 @@
       <c r="C628" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D628" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E628" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D628" s="6"/>
+      <c r="E628" s="6"/>
       <c r="F628" s="6"/>
       <c r="G628" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H628" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I628" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J628" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K628" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H628" s="6"/>
+      <c r="I628" s="6"/>
+      <c r="J628" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K628" s="6"/>
     </row>
     <row r="629" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B629" s="11">
         <v>329</v>
@@ -18715,10 +18707,10 @@
         <v>38</v>
       </c>
       <c r="D629" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E629" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F629" s="6"/>
       <c r="G629" s="11" t="s">
@@ -18728,80 +18720,84 @@
         <v>45</v>
       </c>
       <c r="I629" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J629" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K629" s="6"/>
+      <c r="K629" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="630" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="5" t="s">
+      <c r="A630" s="6">
+        <v>1612</v>
+      </c>
+      <c r="B630" s="11">
+        <v>329</v>
+      </c>
+      <c r="C630" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D630" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E630" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F630" s="6"/>
+      <c r="G630" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H630" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I630" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J630" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K630" s="6"/>
+    </row>
+    <row r="631" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B630" s="5" t="s">
+      <c r="B631" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C630" s="5" t="s">
+      <c r="C631" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D630" s="5" t="s">
+      <c r="D631" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E630" s="5" t="s">
+      <c r="E631" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F630" s="5" t="s">
+      <c r="F631" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G630" s="5" t="s">
+      <c r="G631" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H630" s="5" t="s">
+      <c r="H631" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I630" s="5" t="s">
+      <c r="I631" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J630" s="5" t="s">
+      <c r="J631" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K630" s="5" t="s">
+      <c r="K631" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="631" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="6">
-        <v>1613</v>
-      </c>
-      <c r="B631" s="11">
-        <v>329</v>
-      </c>
-      <c r="C631" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D631" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E631" s="6"/>
-      <c r="F631" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G631" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H631" s="6"/>
-      <c r="I631" s="6"/>
-      <c r="J631" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K631" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="632" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B632" s="11">
         <v>329</v>
@@ -18809,10 +18805,12 @@
       <c r="C632" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D632" s="6"/>
+      <c r="D632" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E632" s="6"/>
       <c r="F632" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G632" s="11" t="s">
         <v>18</v>
@@ -18822,11 +18820,13 @@
       <c r="J632" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K632" s="6"/>
+      <c r="K632" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="633" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B633" s="11">
         <v>329</v>
@@ -18834,22 +18834,16 @@
       <c r="C633" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D633" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E633" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F633" s="6"/>
+      <c r="D633" s="6"/>
+      <c r="E633" s="6"/>
+      <c r="F633" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G633" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H633" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I633" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H633" s="6"/>
+      <c r="I633" s="6"/>
       <c r="J633" s="11" t="s">
         <v>30</v>
       </c>
@@ -18857,7 +18851,7 @@
     </row>
     <row r="634" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B634" s="11">
         <v>329</v>
@@ -18869,7 +18863,7 @@
         <v>41</v>
       </c>
       <c r="E634" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F634" s="6"/>
       <c r="G634" s="11" t="s">
@@ -18879,7 +18873,7 @@
         <v>45</v>
       </c>
       <c r="I634" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J634" s="11" t="s">
         <v>30</v>
@@ -18888,7 +18882,7 @@
     </row>
     <row r="635" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B635" s="11">
         <v>329</v>
@@ -18897,27 +18891,29 @@
         <v>38</v>
       </c>
       <c r="D635" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E635" s="6"/>
-      <c r="F635" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E635" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F635" s="6"/>
       <c r="G635" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H635" s="6"/>
-      <c r="I635" s="6"/>
+      <c r="H635" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I635" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J635" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K635" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K635" s="6"/>
     </row>
     <row r="636" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B636" s="11">
         <v>329</v>
@@ -18930,7 +18926,7 @@
       </c>
       <c r="E636" s="6"/>
       <c r="F636" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G636" s="11" t="s">
         <v>18</v>
@@ -18941,12 +18937,12 @@
         <v>30</v>
       </c>
       <c r="K636" s="6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="637" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B637" s="11">
         <v>329</v>
@@ -18954,22 +18950,28 @@
       <c r="C637" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D637" s="6"/>
+      <c r="D637" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E637" s="6"/>
       <c r="F637" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G637" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H637" s="6"/>
       <c r="I637" s="6"/>
-      <c r="J637" s="6"/>
-      <c r="K637" s="6"/>
+      <c r="J637" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K637" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="638" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B638" s="11">
         <v>329</v>
@@ -18977,30 +18979,22 @@
       <c r="C638" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D638" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E638" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F638" s="6"/>
+      <c r="D638" s="6"/>
+      <c r="E638" s="6"/>
+      <c r="F638" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G638" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H638" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I638" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J638" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H638" s="6"/>
+      <c r="I638" s="6"/>
+      <c r="J638" s="6"/>
       <c r="K638" s="6"/>
     </row>
     <row r="639" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B639" s="11">
         <v>329</v>
@@ -19008,22 +19002,30 @@
       <c r="C639" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D639" s="6"/>
-      <c r="E639" s="6"/>
+      <c r="D639" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E639" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F639" s="6"/>
       <c r="G639" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H639" s="6"/>
-      <c r="I639" s="6"/>
+      <c r="H639" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I639" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J639" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K639" s="6"/>
     </row>
     <row r="640" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B640" s="11">
         <v>329</v>
@@ -19031,30 +19033,22 @@
       <c r="C640" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D640" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E640" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D640" s="6"/>
+      <c r="E640" s="6"/>
       <c r="F640" s="6"/>
       <c r="G640" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H640" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I640" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H640" s="6"/>
+      <c r="I640" s="6"/>
       <c r="J640" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K640" s="6"/>
     </row>
     <row r="641" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B641" s="11">
         <v>329</v>
@@ -19063,20 +19057,20 @@
         <v>38</v>
       </c>
       <c r="D641" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E641" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F641" s="6"/>
       <c r="G641" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H641" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I641" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J641" s="6" t="s">
         <v>30</v>
@@ -19085,7 +19079,7 @@
     </row>
     <row r="642" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B642" s="11">
         <v>329</v>
@@ -19097,7 +19091,7 @@
         <v>40</v>
       </c>
       <c r="E642" s="6" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F642" s="6"/>
       <c r="G642" s="11" t="s">
@@ -19112,13 +19106,11 @@
       <c r="J642" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K642" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="K642" s="6"/>
     </row>
     <row r="643" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B643" s="11">
         <v>329</v>
@@ -19130,7 +19122,7 @@
         <v>40</v>
       </c>
       <c r="E643" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F643" s="6"/>
       <c r="G643" s="11" t="s">
@@ -19146,12 +19138,12 @@
         <v>30</v>
       </c>
       <c r="K643" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="644" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="6">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B644" s="11">
         <v>329</v>
@@ -19170,7 +19162,7 @@
         <v>18</v>
       </c>
       <c r="H644" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I644" s="6" t="s">
         <v>30</v>
@@ -19184,7 +19176,7 @@
     </row>
     <row r="645" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B645" s="11">
         <v>329</v>
@@ -19196,26 +19188,28 @@
         <v>40</v>
       </c>
       <c r="E645" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F645" s="6"/>
       <c r="G645" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H645" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I645" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J645" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K645" s="6"/>
+      <c r="K645" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="646" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B646" s="11">
         <v>329</v>
@@ -19227,14 +19221,14 @@
         <v>40</v>
       </c>
       <c r="E646" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F646" s="6"/>
       <c r="G646" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H646" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I646" s="6" t="s">
         <v>33</v>
@@ -19246,7 +19240,7 @@
     </row>
     <row r="647" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B647" s="11">
         <v>329</v>
@@ -19257,25 +19251,27 @@
       <c r="D647" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E647" s="6"/>
-      <c r="F647" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="E647" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F647" s="6"/>
       <c r="G647" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H647" s="6"/>
-      <c r="I647" s="6"/>
+      <c r="H647" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I647" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J647" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K647" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="K647" s="6"/>
     </row>
     <row r="648" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="6">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B648" s="11">
         <v>329</v>
@@ -19283,22 +19279,28 @@
       <c r="C648" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D648" s="6"/>
+      <c r="D648" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E648" s="6"/>
-      <c r="F648" s="6"/>
+      <c r="F648" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G648" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H648" s="6"/>
       <c r="I648" s="6"/>
       <c r="J648" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K648" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K648" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="649" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B649" s="11">
         <v>329</v>
@@ -19321,7 +19323,7 @@
     </row>
     <row r="650" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B650" s="11">
         <v>329</v>
@@ -19329,28 +19331,22 @@
       <c r="C650" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D650" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D650" s="6"/>
       <c r="E650" s="6"/>
-      <c r="F650" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="F650" s="6"/>
       <c r="G650" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H650" s="6"/>
       <c r="I650" s="6"/>
       <c r="J650" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K650" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K650" s="6"/>
     </row>
     <row r="651" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B651" s="11">
         <v>329</v>
@@ -19359,29 +19355,27 @@
         <v>38</v>
       </c>
       <c r="D651" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E651" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F651" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="E651" s="6"/>
+      <c r="F651" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G651" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H651" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I651" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H651" s="6"/>
+      <c r="I651" s="6"/>
       <c r="J651" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K651" s="6"/>
+      <c r="K651" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="652" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B652" s="11">
         <v>329</v>
@@ -19390,10 +19384,10 @@
         <v>38</v>
       </c>
       <c r="D652" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E652" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F652" s="6"/>
       <c r="G652" s="11" t="s">
@@ -19412,7 +19406,7 @@
     </row>
     <row r="653" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B653" s="11">
         <v>329</v>
@@ -19420,24 +19414,30 @@
       <c r="C653" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D653" s="6"/>
-      <c r="E653" s="6"/>
-      <c r="F653" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="D653" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E653" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F653" s="6"/>
       <c r="G653" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H653" s="6"/>
-      <c r="I653" s="6"/>
-      <c r="J653" s="6"/>
-      <c r="K653" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="H653" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I653" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J653" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K653" s="6"/>
     </row>
     <row r="654" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B654" s="11">
         <v>329</v>
@@ -19462,7 +19462,7 @@
     </row>
     <row r="655" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B655" s="11">
         <v>329</v>
@@ -19470,24 +19470,24 @@
       <c r="C655" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D655" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D655" s="6"/>
       <c r="E655" s="6"/>
-      <c r="F655" s="6"/>
+      <c r="F655" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G655" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H655" s="6"/>
       <c r="I655" s="6"/>
-      <c r="J655" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K655" s="6"/>
+      <c r="J655" s="6"/>
+      <c r="K655" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="656" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B656" s="11">
         <v>329</v>
@@ -19496,12 +19496,10 @@
         <v>38</v>
       </c>
       <c r="D656" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E656" s="6"/>
-      <c r="F656" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="F656" s="6"/>
       <c r="G656" s="11" t="s">
         <v>18</v>
       </c>
@@ -19514,7 +19512,7 @@
     </row>
     <row r="657" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B657" s="11">
         <v>329</v>
@@ -19522,22 +19520,26 @@
       <c r="C657" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D657" s="6"/>
+      <c r="D657" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E657" s="6"/>
       <c r="F657" s="6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G657" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H657" s="6"/>
       <c r="I657" s="6"/>
-      <c r="J657" s="6"/>
+      <c r="J657" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K657" s="6"/>
     </row>
     <row r="658" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B658" s="11">
         <v>329</v>
@@ -19545,26 +19547,22 @@
       <c r="C658" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D658" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D658" s="6"/>
       <c r="E658" s="6"/>
       <c r="F658" s="6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G658" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H658" s="6"/>
       <c r="I658" s="6"/>
-      <c r="J658" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="J658" s="6"/>
       <c r="K658" s="6"/>
     </row>
     <row r="659" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B659" s="11">
         <v>329</v>
@@ -19573,21 +19571,17 @@
         <v>38</v>
       </c>
       <c r="D659" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E659" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F659" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="E659" s="6"/>
+      <c r="F659" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="G659" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H659" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I659" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H659" s="6"/>
+      <c r="I659" s="6"/>
       <c r="J659" s="6" t="s">
         <v>30</v>
       </c>
@@ -19595,7 +19589,7 @@
     </row>
     <row r="660" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B660" s="11">
         <v>329</v>
@@ -19603,22 +19597,30 @@
       <c r="C660" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D660" s="6"/>
-      <c r="E660" s="6"/>
-      <c r="F660" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D660" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E660" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F660" s="6"/>
       <c r="G660" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H660" s="6"/>
-      <c r="I660" s="6"/>
-      <c r="J660" s="6"/>
+      <c r="H660" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I660" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J660" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K660" s="6"/>
     </row>
     <row r="661" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B661" s="11">
         <v>329</v>
@@ -19626,28 +19628,22 @@
       <c r="C661" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D661" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D661" s="6"/>
       <c r="E661" s="6"/>
       <c r="F661" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G661" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H661" s="6"/>
       <c r="I661" s="6"/>
-      <c r="J661" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K661" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="J661" s="6"/>
+      <c r="K661" s="6"/>
     </row>
     <row r="662" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B662" s="11">
         <v>329</v>
@@ -19655,26 +19651,28 @@
       <c r="C662" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D662" s="6"/>
-      <c r="E662" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F662" s="6"/>
+      <c r="D662" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E662" s="6"/>
+      <c r="F662" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G662" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H662" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I662" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J662" s="6"/>
-      <c r="K662" s="6"/>
+      <c r="H662" s="6"/>
+      <c r="I662" s="6"/>
+      <c r="J662" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K662" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="663" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B663" s="11">
         <v>329</v>
@@ -19682,11 +19680,9 @@
       <c r="C663" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D663" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D663" s="6"/>
       <c r="E663" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F663" s="6"/>
       <c r="G663" s="11" t="s">
@@ -19696,16 +19692,14 @@
         <v>44</v>
       </c>
       <c r="I663" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J663" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J663" s="6"/>
       <c r="K663" s="6"/>
     </row>
     <row r="664" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B664" s="11">
         <v>329</v>
@@ -19714,10 +19708,10 @@
         <v>38</v>
       </c>
       <c r="D664" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E664" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F664" s="6"/>
       <c r="G664" s="11" t="s">
@@ -19732,13 +19726,11 @@
       <c r="J664" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K664" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K664" s="6"/>
     </row>
     <row r="665" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B665" s="11">
         <v>329</v>
@@ -19750,26 +19742,28 @@
         <v>41</v>
       </c>
       <c r="E665" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F665" s="6"/>
       <c r="G665" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H665" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I665" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J665" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K665" s="6"/>
+      <c r="K665" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="666" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B666" s="11">
         <v>329</v>
@@ -19778,17 +19772,17 @@
         <v>38</v>
       </c>
       <c r="D666" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E666" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F666" s="6"/>
       <c r="G666" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H666" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I666" s="6" t="s">
         <v>30</v>
@@ -19796,13 +19790,11 @@
       <c r="J666" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K666" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K666" s="6"/>
     </row>
     <row r="667" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B667" s="11">
         <v>329</v>
@@ -19814,14 +19806,14 @@
         <v>40</v>
       </c>
       <c r="E667" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F667" s="6"/>
       <c r="G667" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H667" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I667" s="6" t="s">
         <v>30</v>
@@ -19829,11 +19821,13 @@
       <c r="J667" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K667" s="6"/>
+      <c r="K667" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="668" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B668" s="11">
         <v>329</v>
@@ -19842,20 +19836,20 @@
         <v>38</v>
       </c>
       <c r="D668" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E668" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H668" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I668" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J668" s="6" t="s">
         <v>30</v>
@@ -19864,7 +19858,7 @@
     </row>
     <row r="669" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B669" s="11">
         <v>329</v>
@@ -19873,17 +19867,21 @@
         <v>38</v>
       </c>
       <c r="D669" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E669" s="6"/>
-      <c r="F669" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E669" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F669" s="6"/>
       <c r="G669" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H669" s="6"/>
-      <c r="I669" s="6"/>
+      <c r="H669" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I669" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J669" s="6" t="s">
         <v>30</v>
       </c>
@@ -19891,7 +19889,7 @@
     </row>
     <row r="670" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B670" s="11">
         <v>329</v>
@@ -19903,8 +19901,8 @@
         <v>40</v>
       </c>
       <c r="E670" s="6"/>
-      <c r="F670" t="s">
-        <v>54</v>
+      <c r="F670" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="G670" s="11" t="s">
         <v>18</v>
@@ -19918,7 +19916,7 @@
     </row>
     <row r="671" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B671" s="11">
         <v>329</v>
@@ -19926,10 +19924,12 @@
       <c r="C671" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D671" s="6"/>
+      <c r="D671" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E671" s="6"/>
-      <c r="F671" s="6" t="s">
-        <v>32</v>
+      <c r="F671" t="s">
+        <v>54</v>
       </c>
       <c r="G671" s="11" t="s">
         <v>18</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="672" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B672" s="11">
         <v>329</v>
@@ -19951,12 +19951,10 @@
       <c r="C672" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D672" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D672" s="6"/>
       <c r="E672" s="6"/>
       <c r="F672" s="6" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G672" s="11" t="s">
         <v>18</v>
@@ -19970,7 +19968,7 @@
     </row>
     <row r="673" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="6">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B673" s="11">
         <v>329</v>
@@ -19978,28 +19976,26 @@
       <c r="C673" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D673" s="6"/>
-      <c r="E673" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F673" s="6"/>
+      <c r="D673" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E673" s="6"/>
+      <c r="F673" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G673" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H673" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I673" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J673" s="6"/>
-      <c r="K673" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H673" s="6"/>
+      <c r="I673" s="6"/>
+      <c r="J673" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K673" s="6"/>
     </row>
     <row r="674" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="6">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B674" s="11">
         <v>329</v>
@@ -20019,7 +20015,7 @@
         <v>45</v>
       </c>
       <c r="I674" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J674" s="6"/>
       <c r="K674" s="6" t="s">
@@ -20028,7 +20024,7 @@
     </row>
     <row r="675" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="6">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B675" s="11">
         <v>329</v>
@@ -20036,9 +20032,7 @@
       <c r="C675" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D675" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D675" s="6"/>
       <c r="E675" s="6" t="s">
         <v>66</v>
       </c>
@@ -20047,21 +20041,19 @@
         <v>18</v>
       </c>
       <c r="H675" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I675" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J675" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="J675" s="6"/>
       <c r="K675" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="676" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B676" s="11">
         <v>329</v>
@@ -20072,25 +20064,29 @@
       <c r="D676" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E676" s="6"/>
-      <c r="F676" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="E676" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F676" s="6"/>
       <c r="G676" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H676" s="6"/>
-      <c r="I676" s="6"/>
+      <c r="H676" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I676" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J676" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K676" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="677" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="6">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B677" s="11">
         <v>329</v>
@@ -20098,10 +20094,12 @@
       <c r="C677" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D677" s="6"/>
+      <c r="D677" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E677" s="6"/>
       <c r="F677" s="6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G677" s="11" t="s">
         <v>18</v>
@@ -20111,11 +20109,13 @@
       <c r="J677" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K677" s="6"/>
+      <c r="K677" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="678" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="6">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B678" s="11">
         <v>329</v>
@@ -20123,12 +20123,10 @@
       <c r="C678" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D678" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D678" s="6"/>
       <c r="E678" s="6"/>
       <c r="F678" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G678" s="11" t="s">
         <v>18</v>
@@ -20142,7 +20140,7 @@
     </row>
     <row r="679" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="6">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B679" s="11">
         <v>329</v>
@@ -20151,11 +20149,11 @@
         <v>38</v>
       </c>
       <c r="D679" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E679" s="6"/>
       <c r="F679" s="6" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G679" s="11" t="s">
         <v>18</v>
@@ -20169,7 +20167,7 @@
     </row>
     <row r="680" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="6">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B680" s="11">
         <v>329</v>
@@ -20180,29 +20178,23 @@
       <c r="D680" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E680" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F680" s="6"/>
+      <c r="E680" s="6"/>
+      <c r="F680" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G680" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H680" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I680" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H680" s="6"/>
+      <c r="I680" s="6"/>
       <c r="J680" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K680" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K680" s="6"/>
     </row>
     <row r="681" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="6">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B681" s="11">
         <v>329</v>
@@ -20211,93 +20203,97 @@
         <v>38</v>
       </c>
       <c r="D681" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E681" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F681" s="6"/>
       <c r="G681" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H681" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I681" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J681" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K681" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="6">
+        <v>1663</v>
+      </c>
+      <c r="B682" s="11">
+        <v>329</v>
+      </c>
+      <c r="C682" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D682" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E682" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F682" s="6"/>
+      <c r="G682" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H682" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I681" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J681" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K681" s="6"/>
-    </row>
-    <row r="682" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="5" t="s">
+      <c r="I682" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J682" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K682" s="6"/>
+    </row>
+    <row r="683" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B682" s="5" t="s">
+      <c r="B683" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C682" s="5" t="s">
+      <c r="C683" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D682" s="5" t="s">
+      <c r="D683" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E682" s="5" t="s">
+      <c r="E683" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F682" s="5" t="s">
+      <c r="F683" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G682" s="5" t="s">
+      <c r="G683" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H682" s="5" t="s">
+      <c r="H683" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I682" s="5" t="s">
+      <c r="I683" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J682" s="5" t="s">
+      <c r="J683" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K682" s="5" t="s">
+      <c r="K683" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="683" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="6">
-        <v>1664</v>
-      </c>
-      <c r="B683" s="11">
-        <v>329</v>
-      </c>
-      <c r="C683" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D683" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E683" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F683" s="6"/>
-      <c r="G683" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H683" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I683" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J683" s="6"/>
-      <c r="K683" s="6"/>
     </row>
     <row r="684" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="6">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B684" s="11">
         <v>329</v>
@@ -20306,10 +20302,10 @@
         <v>38</v>
       </c>
       <c r="D684" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E684" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F684" s="6"/>
       <c r="G684" s="11" t="s">
@@ -20322,13 +20318,11 @@
         <v>33</v>
       </c>
       <c r="J684" s="6"/>
-      <c r="K684" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K684" s="6"/>
     </row>
     <row r="685" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="6">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B685" s="11">
         <v>329</v>
@@ -20336,24 +20330,30 @@
       <c r="C685" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D685" s="6"/>
-      <c r="E685" s="6"/>
-      <c r="F685" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D685" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E685" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F685" s="6"/>
       <c r="G685" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H685" s="6"/>
-      <c r="I685" s="6"/>
-      <c r="J685" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K685" s="6"/>
+      <c r="H685" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I685" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J685" s="6"/>
+      <c r="K685" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="686" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="6">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B686" s="11">
         <v>329</v>
@@ -20361,28 +20361,24 @@
       <c r="C686" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D686" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E686" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F686" s="6"/>
+      <c r="D686" s="6"/>
+      <c r="E686" s="6"/>
+      <c r="F686" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G686" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H686" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I686" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J686" s="6"/>
+      <c r="H686" s="6"/>
+      <c r="I686" s="6"/>
+      <c r="J686" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K686" s="6"/>
     </row>
     <row r="687" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="6">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B687" s="11">
         <v>329</v>
@@ -20391,29 +20387,27 @@
         <v>38</v>
       </c>
       <c r="D687" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E687" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F687" s="6"/>
       <c r="G687" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H687" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I687" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J687" s="6"/>
-      <c r="K687" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K687" s="6"/>
     </row>
     <row r="688" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="6">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B688" s="11">
         <v>329</v>
@@ -20421,165 +20415,169 @@
       <c r="C688" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D688" s="6"/>
-      <c r="E688" s="6"/>
-      <c r="F688" s="6" t="s">
+      <c r="D688" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E688" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F688" s="6"/>
+      <c r="G688" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H688" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I688" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J688" s="6"/>
+      <c r="K688" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="6">
+        <v>1669</v>
+      </c>
+      <c r="B689" s="11">
+        <v>329</v>
+      </c>
+      <c r="C689" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D689" s="6"/>
+      <c r="E689" s="6"/>
+      <c r="F689" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G688" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H688" s="6"/>
-      <c r="I688" s="6"/>
-      <c r="J688" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K688" s="6"/>
-    </row>
-    <row r="689" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="8">
+      <c r="G689" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H689" s="6"/>
+      <c r="I689" s="6"/>
+      <c r="J689" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K689" s="6"/>
+    </row>
+    <row r="690" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="8">
         <v>1670</v>
       </c>
-      <c r="B689" s="12">
+      <c r="B690" s="12">
         <v>329</v>
       </c>
-      <c r="C689" s="12" t="s">
+      <c r="C690" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D689" s="8" t="s">
+      <c r="D690" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E689" s="8" t="s">
+      <c r="E690" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F689" s="8"/>
-      <c r="G689" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H689" s="8" t="s">
+      <c r="F690" s="8"/>
+      <c r="G690" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H690" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I689" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J689" s="8"/>
-      <c r="K689" s="8" t="s">
+      <c r="I690" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J690" s="8"/>
+      <c r="K690" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="9">
+    <row r="691" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A691" s="9">
         <v>1671</v>
       </c>
-      <c r="B690" s="10">
+      <c r="B691" s="10">
         <v>16</v>
       </c>
-      <c r="C690" s="10" t="s">
+      <c r="C691" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D690" s="9"/>
-      <c r="E690" s="9"/>
-      <c r="F690" s="9" t="s">
+      <c r="D691" s="9"/>
+      <c r="E691" s="9"/>
+      <c r="F691" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G690" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H690" s="9"/>
-      <c r="I690" s="9"/>
-      <c r="J690" s="9"/>
-      <c r="K690" s="9"/>
-    </row>
-    <row r="691" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="8">
+      <c r="G691" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H691" s="9"/>
+      <c r="I691" s="9"/>
+      <c r="J691" s="9"/>
+      <c r="K691" s="9"/>
+    </row>
+    <row r="692" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="8">
         <v>1672</v>
       </c>
-      <c r="B691" s="12">
+      <c r="B692" s="12">
         <v>16</v>
       </c>
-      <c r="C691" s="12" t="s">
+      <c r="C692" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D691" s="8"/>
-      <c r="E691" s="8" t="s">
+      <c r="D692" s="8"/>
+      <c r="E692" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F691" s="8"/>
-      <c r="G691" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H691" s="8" t="s">
+      <c r="F692" s="8"/>
+      <c r="G692" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H692" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I691" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J691" s="8"/>
-      <c r="K691" s="8"/>
-    </row>
-    <row r="692" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="9">
+      <c r="I692" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J692" s="8"/>
+      <c r="K692" s="8"/>
+    </row>
+    <row r="693" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A693" s="9">
         <v>1673</v>
       </c>
-      <c r="B692" s="10">
+      <c r="B693" s="10">
         <v>329</v>
       </c>
-      <c r="C692" s="10" t="s">
+      <c r="C693" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D692" s="9" t="s">
+      <c r="D693" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E692" s="9" t="s">
+      <c r="E693" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F692" s="9"/>
-      <c r="G692" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H692" s="9" t="s">
+      <c r="F693" s="9"/>
+      <c r="G693" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H693" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I692" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J692" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K692" s="9" t="s">
+      <c r="I693" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J693" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K693" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="693" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="6">
-        <v>1674</v>
-      </c>
-      <c r="B693" s="11">
-        <v>329</v>
-      </c>
-      <c r="C693" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D693" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E693" s="6"/>
-      <c r="F693" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G693" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H693" s="6"/>
-      <c r="I693" s="6"/>
-      <c r="J693" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K693" s="6"/>
     </row>
     <row r="694" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="6">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B694" s="11">
         <v>329</v>
@@ -20590,19 +20588,15 @@
       <c r="D694" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E694" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F694" s="6"/>
+      <c r="E694" s="6"/>
+      <c r="F694" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G694" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H694" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I694" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H694" s="6"/>
+      <c r="I694" s="6"/>
       <c r="J694" s="6" t="s">
         <v>30</v>
       </c>
@@ -20610,7 +20604,7 @@
     </row>
     <row r="695" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="6">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B695" s="11">
         <v>329</v>
@@ -20622,7 +20616,7 @@
         <v>41</v>
       </c>
       <c r="E695" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F695" s="6"/>
       <c r="G695" s="11" t="s">
@@ -20632,7 +20626,7 @@
         <v>44</v>
       </c>
       <c r="I695" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J695" s="6" t="s">
         <v>30</v>
@@ -20641,7 +20635,7 @@
     </row>
     <row r="696" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="6">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B696" s="11">
         <v>329</v>
@@ -20653,7 +20647,7 @@
         <v>41</v>
       </c>
       <c r="E696" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F696" s="6"/>
       <c r="G696" s="11" t="s">
@@ -20672,7 +20666,7 @@
     </row>
     <row r="697" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="6">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B697" s="11">
         <v>329</v>
@@ -20684,7 +20678,7 @@
         <v>41</v>
       </c>
       <c r="E697" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F697" s="6"/>
       <c r="G697" s="11" t="s">
@@ -20694,7 +20688,7 @@
         <v>44</v>
       </c>
       <c r="I697" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J697" s="6" t="s">
         <v>30</v>
@@ -20703,7 +20697,7 @@
     </row>
     <row r="698" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="6">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B698" s="11">
         <v>329</v>
@@ -20714,15 +20708,19 @@
       <c r="D698" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E698" s="6"/>
-      <c r="F698" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="E698" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F698" s="6"/>
       <c r="G698" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H698" s="6"/>
-      <c r="I698" s="6"/>
+      <c r="H698" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I698" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J698" s="6" t="s">
         <v>30</v>
       </c>
@@ -20730,7 +20728,7 @@
     </row>
     <row r="699" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="6">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B699" s="11">
         <v>329</v>
@@ -20741,29 +20739,23 @@
       <c r="D699" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E699" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F699" s="6"/>
+      <c r="E699" s="6"/>
+      <c r="F699" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G699" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H699" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I699" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H699" s="6"/>
+      <c r="I699" s="6"/>
       <c r="J699" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K699" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K699" s="6"/>
     </row>
     <row r="700" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="6">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B700" s="11">
         <v>329</v>
@@ -20775,14 +20767,14 @@
         <v>41</v>
       </c>
       <c r="E700" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F700" s="6"/>
       <c r="G700" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H700" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I700" s="6" t="s">
         <v>33</v>
@@ -20790,11 +20782,13 @@
       <c r="J700" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K700" s="6"/>
+      <c r="K700" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="701" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="6">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B701" s="11">
         <v>329</v>
@@ -20806,119 +20800,119 @@
         <v>41</v>
       </c>
       <c r="E701" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F701" s="6"/>
       <c r="G701" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H701" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I701" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J701" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K701" s="6"/>
+    </row>
+    <row r="702" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="6">
+        <v>1682</v>
+      </c>
+      <c r="B702" s="11">
+        <v>329</v>
+      </c>
+      <c r="C702" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D702" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E702" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F702" s="6"/>
+      <c r="G702" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H702" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I701" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J701" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K701" s="6"/>
-    </row>
-    <row r="702" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="8">
+      <c r="I702" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J702" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K702" s="6"/>
+    </row>
+    <row r="703" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="8">
         <v>1683</v>
       </c>
-      <c r="B702" s="12">
+      <c r="B703" s="12">
         <v>329</v>
       </c>
-      <c r="C702" s="12" t="s">
+      <c r="C703" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D702" s="8" t="s">
+      <c r="D703" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E702" s="8" t="s">
+      <c r="E703" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F702" s="8"/>
-      <c r="G702" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H702" s="8" t="s">
+      <c r="F703" s="8"/>
+      <c r="G703" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H703" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I702" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J702" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K702" s="8"/>
-    </row>
-    <row r="703" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A703" s="9">
+      <c r="I703" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J703" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K703" s="8"/>
+    </row>
+    <row r="704" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="9">
         <v>1684</v>
       </c>
-      <c r="B703" s="10">
+      <c r="B704" s="10">
         <v>16</v>
       </c>
-      <c r="C703" s="10" t="s">
+      <c r="C704" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D703" s="9" t="s">
+      <c r="D704" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E703" s="9" t="s">
+      <c r="E704" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F703" s="9"/>
-      <c r="G703" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H703" s="9" t="s">
+      <c r="F704" s="9"/>
+      <c r="G704" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H704" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I703" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J703" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K703" s="9"/>
-    </row>
-    <row r="704" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A704" s="6">
-        <v>1685</v>
-      </c>
-      <c r="B704" s="11">
-        <v>16</v>
-      </c>
-      <c r="C704" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D704" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E704" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F704" s="6"/>
-      <c r="G704" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H704" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I704" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J704" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K704" s="6"/>
+      <c r="I704" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J704" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K704" s="9"/>
     </row>
     <row r="705" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="6">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B705" s="11">
         <v>16</v>
@@ -20930,14 +20924,14 @@
         <v>41</v>
       </c>
       <c r="E705" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F705" s="6"/>
       <c r="G705" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H705" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I705" s="6" t="s">
         <v>33</v>
@@ -20949,7 +20943,7 @@
     </row>
     <row r="706" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="6">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B706" s="11">
         <v>16</v>
@@ -20980,7 +20974,7 @@
     </row>
     <row r="707" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="6">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B707" s="11">
         <v>16</v>
@@ -20992,103 +20986,111 @@
         <v>41</v>
       </c>
       <c r="E707" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F707" s="6"/>
       <c r="G707" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H707" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I707" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J707" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K707" s="6"/>
+    </row>
+    <row r="708" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A708" s="6">
+        <v>1688</v>
+      </c>
+      <c r="B708" s="11">
+        <v>16</v>
+      </c>
+      <c r="C708" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D708" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E708" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F708" s="6"/>
+      <c r="G708" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H708" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I707" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J707" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K707" s="6"/>
-    </row>
-    <row r="708" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="8">
+      <c r="I708" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J708" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K708" s="6"/>
+    </row>
+    <row r="709" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="8">
         <v>1689</v>
       </c>
-      <c r="B708" s="12">
+      <c r="B709" s="12">
         <v>16</v>
       </c>
-      <c r="C708" s="12" t="s">
+      <c r="C709" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D708" s="8" t="s">
+      <c r="D709" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E708" s="8" t="s">
+      <c r="E709" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F708" s="8"/>
-      <c r="G708" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H708" s="8" t="s">
+      <c r="F709" s="8"/>
+      <c r="G709" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H709" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I708" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J708" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K708" s="8"/>
-    </row>
-    <row r="709" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="9">
+      <c r="I709" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J709" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K709" s="8"/>
+    </row>
+    <row r="710" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A710" s="9">
         <v>1690</v>
       </c>
-      <c r="B709" s="10">
+      <c r="B710" s="10">
         <v>329</v>
       </c>
-      <c r="C709" s="10" t="s">
+      <c r="C710" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D709" s="10"/>
-      <c r="E709" s="9"/>
-      <c r="F709" s="9"/>
-      <c r="G709" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H709" s="9"/>
-      <c r="I709" s="9"/>
-      <c r="J709" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K709" s="9"/>
-    </row>
-    <row r="710" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="6">
-        <v>1691</v>
-      </c>
-      <c r="B710" s="11">
-        <v>329</v>
-      </c>
-      <c r="C710" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D710" s="6"/>
-      <c r="E710" s="6"/>
-      <c r="F710" s="6"/>
-      <c r="G710" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H710" s="6"/>
-      <c r="I710" s="6"/>
-      <c r="J710" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K710" s="6"/>
+      <c r="D710" s="10"/>
+      <c r="E710" s="9"/>
+      <c r="F710" s="9"/>
+      <c r="G710" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H710" s="9"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K710" s="9"/>
     </row>
     <row r="711" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="6">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B711" s="11">
         <v>329</v>
@@ -21111,7 +21113,7 @@
     </row>
     <row r="712" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="6">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B712" s="11">
         <v>329</v>
@@ -21134,7 +21136,7 @@
     </row>
     <row r="713" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="6">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B713" s="11">
         <v>329</v>
@@ -21142,30 +21144,22 @@
       <c r="C713" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D713" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E713" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D713" s="6"/>
+      <c r="E713" s="6"/>
       <c r="F713" s="6"/>
       <c r="G713" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H713" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I713" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H713" s="6"/>
+      <c r="I713" s="6"/>
       <c r="J713" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K713" s="6"/>
     </row>
     <row r="714" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="6">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B714" s="11">
         <v>329</v>
@@ -21176,23 +21170,27 @@
       <c r="D714" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E714" s="6"/>
+      <c r="E714" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="F714" s="6"/>
       <c r="G714" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H714" s="6"/>
-      <c r="I714" s="6"/>
+      <c r="H714" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I714" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J714" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K714" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="K714" s="6"/>
     </row>
     <row r="715" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="6">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B715" s="11">
         <v>329</v>
@@ -21200,11 +21198,11 @@
       <c r="C715" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D715" s="6"/>
+      <c r="D715" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E715" s="6"/>
-      <c r="F715" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F715" s="6"/>
       <c r="G715" s="11" t="s">
         <v>18</v>
       </c>
@@ -21213,11 +21211,13 @@
       <c r="J715" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K715" s="6"/>
+      <c r="K715" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="716" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="6">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B716" s="11">
         <v>329</v>
@@ -21242,7 +21242,7 @@
     </row>
     <row r="717" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="6">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B717" s="11">
         <v>329</v>
@@ -21250,12 +21250,10 @@
       <c r="C717" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D717" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D717" s="6"/>
       <c r="E717" s="6"/>
       <c r="F717" s="6" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G717" s="11" t="s">
         <v>18</v>
@@ -21269,7 +21267,7 @@
     </row>
     <row r="718" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="6">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B718" s="11">
         <v>329</v>
@@ -21277,21 +21275,26 @@
       <c r="C718" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D718" s="6"/>
+      <c r="D718" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E718" s="6"/>
+      <c r="F718" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G718" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H718" s="6"/>
       <c r="I718" s="6"/>
       <c r="J718" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K718" s="6"/>
     </row>
     <row r="719" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="6">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B719" s="11">
         <v>329</v>
@@ -21301,22 +21304,19 @@
       </c>
       <c r="D719" s="6"/>
       <c r="E719" s="6"/>
-      <c r="F719" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G719" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H719" s="6"/>
       <c r="I719" s="6"/>
       <c r="J719" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K719" s="6"/>
     </row>
     <row r="720" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="6">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B720" s="11">
         <v>329</v>
@@ -21324,22 +21324,16 @@
       <c r="C720" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D720" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E720" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F720" s="6"/>
+      <c r="D720" s="6"/>
+      <c r="E720" s="6"/>
+      <c r="F720" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G720" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H720" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I720" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H720" s="6"/>
+      <c r="I720" s="6"/>
       <c r="J720" s="11" t="s">
         <v>30</v>
       </c>
@@ -21347,7 +21341,7 @@
     </row>
     <row r="721" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="6">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B721" s="11">
         <v>329</v>
@@ -21355,22 +21349,30 @@
       <c r="C721" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D721" s="6"/>
-      <c r="E721" s="6"/>
+      <c r="D721" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E721" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="F721" s="6"/>
       <c r="G721" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H721" s="6"/>
-      <c r="I721" s="6"/>
+      <c r="H721" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I721" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J721" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K721" s="6"/>
     </row>
     <row r="722" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="6">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B722" s="11">
         <v>329</v>
@@ -21393,7 +21395,7 @@
     </row>
     <row r="723" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="6">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B723" s="11">
         <v>329</v>
@@ -21416,7 +21418,7 @@
     </row>
     <row r="724" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="6">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B724" s="11">
         <v>329</v>
@@ -21439,7 +21441,7 @@
     </row>
     <row r="725" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="6">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B725" s="11">
         <v>329</v>
@@ -21447,32 +21449,22 @@
       <c r="C725" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D725" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E725" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D725" s="6"/>
+      <c r="E725" s="6"/>
       <c r="F725" s="6"/>
       <c r="G725" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H725" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I725" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H725" s="6"/>
+      <c r="I725" s="6"/>
       <c r="J725" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K725" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K725" s="6"/>
     </row>
     <row r="726" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="6">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B726" s="11">
         <v>329</v>
@@ -21480,22 +21472,32 @@
       <c r="C726" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D726" s="6"/>
-      <c r="E726" s="6"/>
+      <c r="D726" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E726" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F726" s="6"/>
       <c r="G726" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H726" s="6"/>
-      <c r="I726" s="6"/>
-      <c r="J726" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K726" s="6"/>
+      <c r="H726" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I726" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J726" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K726" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="727" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="6">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B727" s="11">
         <v>329</v>
@@ -21503,32 +21505,22 @@
       <c r="C727" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D727" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E727" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D727" s="6"/>
+      <c r="E727" s="6"/>
       <c r="F727" s="6"/>
       <c r="G727" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H727" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I727" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H727" s="6"/>
+      <c r="I727" s="6"/>
       <c r="J727" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K727" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K727" s="6"/>
     </row>
     <row r="728" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="6">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B728" s="11">
         <v>329</v>
@@ -21537,25 +21529,31 @@
         <v>38</v>
       </c>
       <c r="D728" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E728" s="6"/>
-      <c r="F728" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E728" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F728" s="6"/>
       <c r="G728" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H728" s="6"/>
-      <c r="I728" s="6"/>
+      <c r="H728" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I728" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J728" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K728" s="6"/>
+      <c r="K728" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="729" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="6">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B729" s="11">
         <v>329</v>
@@ -21564,10 +21562,12 @@
         <v>38</v>
       </c>
       <c r="D729" s="6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E729" s="6"/>
-      <c r="F729" s="6"/>
+      <c r="F729" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G729" s="11" t="s">
         <v>18</v>
       </c>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="730" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="6">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B730" s="11">
         <v>329</v>
@@ -21605,7 +21605,7 @@
     </row>
     <row r="731" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="6">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B731" s="11">
         <v>329</v>
@@ -21630,7 +21630,7 @@
     </row>
     <row r="732" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="6">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B732" s="11">
         <v>329</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="733" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="6">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B733" s="11">
         <v>329</v>
@@ -21679,68 +21679,68 @@
       <c r="K733" s="6"/>
     </row>
     <row r="734" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="5" t="s">
+      <c r="A734" s="6">
+        <v>1714</v>
+      </c>
+      <c r="B734" s="11">
+        <v>329</v>
+      </c>
+      <c r="C734" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D734" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E734" s="6"/>
+      <c r="F734" s="6"/>
+      <c r="G734" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H734" s="6"/>
+      <c r="I734" s="6"/>
+      <c r="J734" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K734" s="6"/>
+    </row>
+    <row r="735" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A735" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B734" s="5" t="s">
+      <c r="B735" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C734" s="5" t="s">
+      <c r="C735" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D734" s="5" t="s">
+      <c r="D735" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E734" s="5" t="s">
+      <c r="E735" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F734" s="5" t="s">
+      <c r="F735" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G734" s="5" t="s">
+      <c r="G735" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H734" s="5" t="s">
+      <c r="H735" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I734" s="5" t="s">
+      <c r="I735" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J734" s="5" t="s">
+      <c r="J735" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K734" s="5" t="s">
+      <c r="K735" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="735" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="6">
-        <v>1715</v>
-      </c>
-      <c r="B735" s="11">
-        <v>329</v>
-      </c>
-      <c r="C735" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D735" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E735" s="6"/>
-      <c r="F735" s="6"/>
-      <c r="G735" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H735" s="6"/>
-      <c r="I735" s="6"/>
-      <c r="J735" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K735" s="6"/>
     </row>
     <row r="736" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="6">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B736" s="11">
         <v>329</v>
@@ -21749,31 +21749,23 @@
         <v>38</v>
       </c>
       <c r="D736" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E736" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E736" s="6"/>
       <c r="F736" s="6"/>
       <c r="G736" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H736" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I736" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="H736" s="6"/>
+      <c r="I736" s="6"/>
       <c r="J736" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K736" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="K736" s="6"/>
     </row>
     <row r="737" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="6">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B737" s="11">
         <v>329</v>
@@ -21781,22 +21773,32 @@
       <c r="C737" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D737" s="6"/>
-      <c r="E737" s="6"/>
+      <c r="D737" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E737" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F737" s="6"/>
       <c r="G737" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H737" s="6"/>
-      <c r="I737" s="6"/>
+      <c r="H737" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I737" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J737" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K737" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="K737" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="738" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="6">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B738" s="11">
         <v>329</v>
@@ -21806,20 +21808,20 @@
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="6"/>
-      <c r="F738" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="F738" s="6"/>
       <c r="G738" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H738" s="6"/>
       <c r="I738" s="6"/>
-      <c r="J738" s="6"/>
+      <c r="J738" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="K738" s="6"/>
     </row>
     <row r="739" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="6">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B739" s="11">
         <v>329</v>
@@ -21829,20 +21831,20 @@
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="6"/>
-      <c r="F739" s="6"/>
+      <c r="F739" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G739" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H739" s="6"/>
       <c r="I739" s="6"/>
-      <c r="J739" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="J739" s="6"/>
       <c r="K739" s="6"/>
     </row>
     <row r="740" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="6">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B740" s="11">
         <v>329</v>
@@ -21865,7 +21867,7 @@
     </row>
     <row r="741" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="6">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B741" s="11">
         <v>329</v>
@@ -21888,7 +21890,7 @@
     </row>
     <row r="742" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="6">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B742" s="11">
         <v>329</v>
@@ -21909,94 +21911,88 @@
       </c>
       <c r="K742" s="6"/>
     </row>
-    <row r="743" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="8">
+    <row r="743" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="6">
+        <v>1722</v>
+      </c>
+      <c r="B743" s="11">
+        <v>329</v>
+      </c>
+      <c r="C743" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D743" s="6"/>
+      <c r="E743" s="6"/>
+      <c r="F743" s="6"/>
+      <c r="G743" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H743" s="6"/>
+      <c r="I743" s="6"/>
+      <c r="J743" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K743" s="6"/>
+    </row>
+    <row r="744" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="8">
         <v>1723</v>
       </c>
-      <c r="B743" s="12">
+      <c r="B744" s="12">
         <v>329</v>
       </c>
-      <c r="C743" s="12" t="s">
+      <c r="C744" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D743" s="8"/>
-      <c r="E743" s="8"/>
-      <c r="F743" s="8"/>
-      <c r="G743" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H743" s="8"/>
-      <c r="I743" s="8"/>
-      <c r="J743" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K743" s="8"/>
-    </row>
-    <row r="744" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="9">
+      <c r="D744" s="8"/>
+      <c r="E744" s="8"/>
+      <c r="F744" s="8"/>
+      <c r="G744" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H744" s="8"/>
+      <c r="I744" s="8"/>
+      <c r="J744" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K744" s="8"/>
+    </row>
+    <row r="745" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="9">
         <v>1724</v>
       </c>
-      <c r="B744" s="10">
+      <c r="B745" s="10">
         <v>318</v>
       </c>
-      <c r="C744" s="10" t="s">
+      <c r="C745" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D744" s="9" t="s">
+      <c r="D745" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E744" s="9" t="s">
+      <c r="E745" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F744" s="9" t="s">
+      <c r="F745" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G744" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H744" s="9" t="s">
+      <c r="G745" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H745" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I744" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J744" s="9"/>
-      <c r="K744" s="9" t="s">
+      <c r="I745" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J745" s="9"/>
+      <c r="K745" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="745" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="6">
-        <v>1725</v>
-      </c>
-      <c r="B745" s="11">
-        <v>318</v>
-      </c>
-      <c r="C745" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D745" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E745" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F745" s="6"/>
-      <c r="G745" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H745" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I745" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J745" s="6"/>
-      <c r="K745" s="6"/>
     </row>
     <row r="746" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="6">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B746" s="11">
         <v>318</v>
@@ -22008,26 +22004,24 @@
         <v>36</v>
       </c>
       <c r="E746" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F746" s="6"/>
       <c r="G746" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H746" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I746" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J746" s="6"/>
-      <c r="K746" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="K746" s="6"/>
     </row>
     <row r="747" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="6">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B747" s="11">
         <v>318</v>
@@ -22046,10 +22040,10 @@
         <v>18</v>
       </c>
       <c r="H747" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I747" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J747" s="6"/>
       <c r="K747" s="6" t="s">
@@ -22058,7 +22052,7 @@
     </row>
     <row r="748" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="6">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B748" s="11">
         <v>318</v>
@@ -22069,8 +22063,8 @@
       <c r="D748" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E748" s="13" t="s">
-        <v>70</v>
+      <c r="E748" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="F748" s="6"/>
       <c r="G748" s="11" t="s">
@@ -22083,13 +22077,13 @@
         <v>33</v>
       </c>
       <c r="J748" s="6"/>
-      <c r="K748" s="9" t="s">
-        <v>73</v>
+      <c r="K748" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="749" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="6">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B749" s="11">
         <v>318</v>
@@ -22100,25 +22094,27 @@
       <c r="D749" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E749" s="6" t="s">
-        <v>67</v>
+      <c r="E749" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F749" s="6"/>
       <c r="G749" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H749" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I749" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J749" s="6"/>
-      <c r="K749" s="6"/>
+      <c r="K749" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="750" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="6">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B750" s="11">
         <v>318</v>
@@ -22130,7 +22126,7 @@
         <v>36</v>
       </c>
       <c r="E750" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F750" s="6"/>
       <c r="G750" s="11" t="s">
@@ -22140,14 +22136,14 @@
         <v>45</v>
       </c>
       <c r="I750" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J750" s="6"/>
       <c r="K750" s="6"/>
     </row>
     <row r="751" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="6">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B751" s="11">
         <v>318</v>
@@ -22159,7 +22155,7 @@
         <v>36</v>
       </c>
       <c r="E751" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F751" s="6"/>
       <c r="G751" s="11" t="s">
@@ -22169,16 +22165,14 @@
         <v>45</v>
       </c>
       <c r="I751" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J751" s="6"/>
-      <c r="K751" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="K751" s="6"/>
     </row>
     <row r="752" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="6">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B752" s="11">
         <v>318</v>
@@ -22190,7 +22184,7 @@
         <v>36</v>
       </c>
       <c r="E752" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F752" s="6"/>
       <c r="G752" s="11" t="s">
@@ -22200,14 +22194,16 @@
         <v>45</v>
       </c>
       <c r="I752" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J752" s="6"/>
-      <c r="K752" s="6"/>
+      <c r="K752" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="753" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="6">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B753" s="11">
         <v>318</v>
@@ -22218,27 +22214,25 @@
       <c r="D753" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E753" s="13" t="s">
-        <v>70</v>
+      <c r="E753" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F753" s="6"/>
       <c r="G753" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H753" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I753" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J753" s="6"/>
-      <c r="K753" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="K753" s="6"/>
     </row>
     <row r="754" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="6">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B754" s="11">
         <v>318</v>
@@ -22249,25 +22243,27 @@
       <c r="D754" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E754" s="6" t="s">
-        <v>67</v>
+      <c r="E754" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F754" s="6"/>
       <c r="G754" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H754" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I754" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J754" s="6"/>
-      <c r="K754" s="6"/>
+      <c r="K754" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="755" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="6">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B755" s="11">
         <v>318</v>
@@ -22279,7 +22275,7 @@
         <v>36</v>
       </c>
       <c r="E755" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F755" s="6"/>
       <c r="G755" s="11" t="s">
@@ -22296,7 +22292,7 @@
     </row>
     <row r="756" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="6">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B756" s="11">
         <v>318</v>
@@ -22325,7 +22321,7 @@
     </row>
     <row r="757" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="6">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B757" s="11">
         <v>318</v>
@@ -22336,8 +22332,8 @@
       <c r="D757" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E757" s="14" t="s">
-        <v>70</v>
+      <c r="E757" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F757" s="6"/>
       <c r="G757" s="11" t="s">
@@ -22350,13 +22346,11 @@
         <v>33</v>
       </c>
       <c r="J757" s="6"/>
-      <c r="K757" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="K757" s="6"/>
     </row>
     <row r="758" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="6">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B758" s="11">
         <v>318</v>
@@ -22387,7 +22381,7 @@
     </row>
     <row r="759" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="6">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B759" s="11">
         <v>318</v>
@@ -22398,8 +22392,8 @@
       <c r="D759" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E759" s="6" t="s">
-        <v>74</v>
+      <c r="E759" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="F759" s="6"/>
       <c r="G759" s="11" t="s">
@@ -22412,11 +22406,13 @@
         <v>33</v>
       </c>
       <c r="J759" s="6"/>
-      <c r="K759" s="6"/>
+      <c r="K759" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="760" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="6">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B760" s="11">
         <v>318</v>
@@ -22428,20 +22424,24 @@
         <v>36</v>
       </c>
       <c r="E760" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F760" s="6"/>
       <c r="G760" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H760" s="6"/>
-      <c r="I760" s="6"/>
+      <c r="H760" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I760" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J760" s="6"/>
       <c r="K760" s="6"/>
     </row>
     <row r="761" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="6">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B761" s="11">
         <v>318</v>
@@ -22452,27 +22452,21 @@
       <c r="D761" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E761" s="14" t="s">
-        <v>70</v>
+      <c r="E761" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F761" s="6"/>
       <c r="G761" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H761" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I761" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="H761" s="6"/>
+      <c r="I761" s="6"/>
       <c r="J761" s="6"/>
-      <c r="K761" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="K761" s="6"/>
     </row>
     <row r="762" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="6">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B762" s="11">
         <v>318</v>
@@ -22483,25 +22477,27 @@
       <c r="D762" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E762" s="6" t="s">
-        <v>66</v>
+      <c r="E762" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="F762" s="6"/>
       <c r="G762" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H762" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I762" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J762" s="6"/>
-      <c r="K762" s="6"/>
+      <c r="K762" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="763" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="6">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B763" s="11">
         <v>318</v>
@@ -22513,14 +22509,14 @@
         <v>36</v>
       </c>
       <c r="E763" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F763" s="6"/>
       <c r="G763" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H763" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I763" s="6" t="s">
         <v>33</v>
@@ -22530,7 +22526,7 @@
     </row>
     <row r="764" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="6">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B764" s="11">
         <v>318</v>
@@ -22542,14 +22538,14 @@
         <v>36</v>
       </c>
       <c r="E764" s="6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F764" s="6"/>
       <c r="G764" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H764" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I764" s="6" t="s">
         <v>33</v>
@@ -22559,7 +22555,7 @@
     </row>
     <row r="765" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="6">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B765" s="11">
         <v>318</v>
@@ -22588,7 +22584,7 @@
     </row>
     <row r="766" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="6">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B766" s="11">
         <v>318</v>
@@ -22599,9 +22595,10 @@
       <c r="D766" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E766" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="E766" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F766" s="6"/>
       <c r="G766" s="11" t="s">
         <v>18</v>
       </c>
@@ -22612,13 +22609,11 @@
         <v>33</v>
       </c>
       <c r="J766" s="6"/>
-      <c r="K766" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="K766" s="6"/>
     </row>
     <row r="767" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="6">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B767" s="11">
         <v>318</v>
@@ -22629,10 +22624,9 @@
       <c r="D767" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E767" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F767" s="6"/>
+      <c r="E767" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G767" s="11" t="s">
         <v>18</v>
       </c>
@@ -22643,20 +22637,38 @@
         <v>33</v>
       </c>
       <c r="J767" s="6"/>
-      <c r="K767" s="6"/>
+      <c r="K767" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="768" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="2"/>
-      <c r="B768" s="2"/>
-      <c r="C768" s="2"/>
-      <c r="D768" s="2"/>
-      <c r="E768" s="2"/>
-      <c r="F768" s="2"/>
-      <c r="G768" s="3"/>
-      <c r="H768" s="2"/>
-      <c r="I768" s="2"/>
-      <c r="J768" s="2"/>
-      <c r="K768" s="2"/>
+      <c r="A768" s="6">
+        <v>1747</v>
+      </c>
+      <c r="B768" s="11">
+        <v>318</v>
+      </c>
+      <c r="C768" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D768" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E768" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F768" s="6"/>
+      <c r="G768" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H768" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I768" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J768" s="6"/>
+      <c r="K768" s="6"/>
     </row>
     <row r="769" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
@@ -22722,7 +22734,6 @@
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
-      <c r="L773" s="1"/>
     </row>
     <row r="774" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
@@ -22815,7 +22826,7 @@
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
-      <c r="G780" s="2"/>
+      <c r="G780" s="3"/>
       <c r="H780" s="2"/>
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
@@ -23089,17 +23100,17 @@
       <c r="L799" s="1"/>
     </row>
     <row r="800" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A800" s="1"/>
-      <c r="B800" s="1"/>
-      <c r="C800" s="1"/>
-      <c r="D800" s="1"/>
-      <c r="E800" s="1"/>
-      <c r="F800" s="1"/>
-      <c r="G800" s="1"/>
-      <c r="H800" s="1"/>
-      <c r="I800" s="1"/>
-      <c r="J800" s="1"/>
-      <c r="K800" s="1"/>
+      <c r="A800" s="2"/>
+      <c r="B800" s="2"/>
+      <c r="C800" s="2"/>
+      <c r="D800" s="2"/>
+      <c r="E800" s="2"/>
+      <c r="F800" s="2"/>
+      <c r="G800" s="2"/>
+      <c r="H800" s="2"/>
+      <c r="I800" s="2"/>
+      <c r="J800" s="2"/>
+      <c r="K800" s="2"/>
       <c r="L800" s="1"/>
     </row>
     <row r="801" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -29766,6 +29777,20 @@
       <c r="K1276" s="1"/>
       <c r="L1276" s="1"/>
     </row>
+    <row r="1277" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1277" s="1"/>
+      <c r="B1277" s="1"/>
+      <c r="C1277" s="1"/>
+      <c r="D1277" s="1"/>
+      <c r="E1277" s="1"/>
+      <c r="F1277" s="1"/>
+      <c r="G1277" s="1"/>
+      <c r="H1277" s="1"/>
+      <c r="I1277" s="1"/>
+      <c r="J1277" s="1"/>
+      <c r="K1277" s="1"/>
+      <c r="L1277" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
